--- a/data/output/연결 포괄손익계산서.xlsx
+++ b/data/output/연결 포괄손익계산서.xlsx
@@ -34,15 +34,15 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,19 +50,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,3060 +497,5363 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Hyundai</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Kepco</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="D2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>2023년</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>2022년</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>2023년</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>2022년</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>2023년</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>2022년</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>2023년</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>2022년</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>2023년</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>2022년</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>당기순이익(손실)</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n">
         <v>15487100</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>55654077</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>39907450</v>
       </c>
-      <c r="M4" t="n">
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>15487100</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="1" t="n">
         <v>55654077</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="1" t="n">
         <v>39907450</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="1" t="n">
         <v>15487100</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="1" t="n">
         <v>55654077</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="1" t="n">
         <v>39907450</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n">
         <v>3350311</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>4005664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="1" t="n">
         <v>10002299</v>
       </c>
-      <c r="M5" t="n">
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>3350311</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="1" t="n">
         <v>4005664</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="1" t="n">
         <v>10002299</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="1" t="n">
         <v>3350311</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="1" t="n">
         <v>4005664</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="1" t="n">
         <v>10002299</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n">
         <v>665943</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>-822137</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1" t="n">
         <v>2508106</v>
       </c>
-      <c r="M6" t="n">
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>665943</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="1" t="n">
         <v>-822137</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="1" t="n">
         <v>2508106</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="1" t="n">
         <v>665943</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="1" t="n">
         <v>-822137</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="1" t="n">
         <v>2508106</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익-공정가치금융자산평가손익</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>1481091</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>-1969498</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="1" t="n">
         <v>2980896</v>
       </c>
-      <c r="M7" t="n">
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>1481091</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="1" t="n">
         <v>-1969498</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="1" t="n">
         <v>2980896</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="1" t="n">
         <v>1481091</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="1" t="n">
         <v>-1969498</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="1" t="n">
         <v>2980896</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1" t="n">
         <v>13150</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>-6318</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="1" t="n">
         <v>51816</v>
       </c>
-      <c r="M8" t="n">
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>13150</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="1" t="n">
         <v>-6318</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="1" t="n">
         <v>51816</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="1" t="n">
         <v>13150</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="1" t="n">
         <v>-6318</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="1" t="n">
         <v>51816</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>순확정급여부채(자산) 재측정요소</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1" t="n">
         <v>-828298</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>1153679</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="1" t="n">
         <v>-524606</v>
       </c>
-      <c r="M9" t="n">
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>-828298</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="1" t="n">
         <v>1153679</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="1" t="n">
         <v>-524606</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>-828298</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>1153679</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>-524606</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n">
         <v>2684368</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>4827801</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1" t="n">
         <v>7494193</v>
       </c>
-      <c r="M10" t="n">
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>2684368</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="1" t="n">
         <v>4827801</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="1" t="n">
         <v>7494193</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="1" t="n">
         <v>2684368</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="1" t="n">
         <v>4827801</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="1" t="n">
         <v>7494193</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>61962</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>-44192</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="1" t="n">
         <v>160163</v>
       </c>
-      <c r="M11" t="n">
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>61962</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="1" t="n">
         <v>-44192</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="1" t="n">
         <v>160163</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="1" t="n">
         <v>61962</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="1" t="n">
         <v>-44192</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="1" t="n">
         <v>160163</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>해외사업장환산외환차이</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1" t="n">
         <v>2621479</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>4884886</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="1" t="n">
         <v>7283620</v>
       </c>
-      <c r="M12" t="n">
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>2621479</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="1" t="n">
         <v>4884886</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="1" t="n">
         <v>7283620</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="1" t="n">
         <v>2621479</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="1" t="n">
         <v>4884886</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="1" t="n">
         <v>7283620</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익(*4)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>현금흐름위험회피파생상품평가손익</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="1" t="n">
         <v>927</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1" t="n">
         <v>-12893</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="1" t="n">
         <v>50410</v>
       </c>
-      <c r="M13" t="n">
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>927</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="1" t="n">
         <v>-12893</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="1" t="n">
         <v>50410</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="1" t="n">
         <v>927</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="1" t="n">
         <v>-12893</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="1" t="n">
         <v>50410</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>총포괄손익(*3)</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n">
         <v>18837411</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>59659741</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="1" t="n">
         <v>49909749</v>
       </c>
-      <c r="M14" t="n">
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>18837411</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="1" t="n">
         <v>59659741</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="1" t="n">
         <v>49909749</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="1" t="n">
         <v>18837411</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="1" t="n">
         <v>59659741</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="1" t="n">
         <v>49909749</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n">
         <v/>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="1" t="n">
         <v/>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="1" t="n">
         <v/>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="1" t="n">
         <v/>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="1" t="n">
         <v/>
       </c>
-      <c r="M15" t="n">
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
         <v/>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="1" t="n">
         <v/>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="1" t="n">
         <v/>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="1" t="n">
         <v/>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="1" t="n">
         <v/>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="1" t="n">
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>지배기업 소유주지분</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n">
         <v>17845661</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>58745107</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="1" t="n">
         <v>49037912</v>
       </c>
-      <c r="M16" t="n">
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>17845661</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="1" t="n">
         <v>58745107</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="1" t="n">
         <v>49037912</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="1" t="n">
         <v>17845661</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="1" t="n">
         <v>58745107</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="1" t="n">
         <v>49037912</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>비지배지분</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
         <v>991750</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="1" t="n">
         <v>914634</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="1" t="n">
         <v>871837</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="1" t="n">
         <v>224415</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="1" t="n">
         <v>800080</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="1" t="n">
         <v>922502</v>
       </c>
-      <c r="M17" t="n">
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="n">
         <v>1216165</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="1" t="n">
         <v>1714714</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="1" t="n">
         <v>1794339</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="1" t="n">
         <v>608082.5</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="1" t="n">
         <v>857357</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="1" t="n">
         <v>897169.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>지배기업소유주지분</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>12204426</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="1" t="n">
         <v>8234396</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="1" t="n">
         <v>6938637</v>
       </c>
-      <c r="M18" t="n">
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="n">
         <v>12204426</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="1" t="n">
         <v>8234396</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="1" t="n">
         <v>6938637</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="1" t="n">
         <v>12204426</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="1" t="n">
         <v>8234396</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="1" t="n">
         <v>6938637</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>연결당기순이익</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>12272301</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="1" t="n">
         <v>7983614</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="1" t="n">
         <v>5693077</v>
       </c>
-      <c r="M19" t="n">
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="n">
         <v>12272301</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="1" t="n">
         <v>7983614</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="1" t="n">
         <v>5693077</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="1" t="n">
         <v>12272301</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="1" t="n">
         <v>7983614</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="1" t="n">
         <v>5693077</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>156540</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="1" t="n">
         <v>1050862</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="1" t="n">
         <v>2168062</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="1" t="n">
         <v>-228672</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="1" t="n">
         <v>1246869</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="1" t="n">
         <v>599614</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="1" t="n">
         <v>-72132</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="1" t="n">
         <v>2297731</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="1" t="n">
         <v>2767676</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="1" t="n">
         <v>-36066</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="1" t="n">
         <v>1148865.5</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="1" t="n">
         <v>1383838</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>-412756</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="1" t="n">
         <v>157304</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="1" t="n">
         <v>376814</v>
       </c>
-      <c r="M21" t="n">
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="n">
         <v>-412756</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="1" t="n">
         <v>157304</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="1" t="n">
         <v>376814</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>-412756</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>157304</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>376814</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>79056</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="1" t="n">
         <v>-223420</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="1" t="n">
         <v>102137</v>
       </c>
-      <c r="M22" t="n">
+      <c r="J22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="n">
         <v>79056</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="1" t="n">
         <v>-223420</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="1" t="n">
         <v>102137</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="1" t="n">
         <v>79056</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="1" t="n">
         <v>-223420</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="1" t="n">
         <v>102137</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>확정급여제도의 재측정요소</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>-312128</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="1" t="n">
         <v>391308</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="1" t="n">
         <v>175392</v>
       </c>
-      <c r="M23" t="n">
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="n">
         <v>-312128</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="1" t="n">
         <v>391308</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="1" t="n">
         <v>175392</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="1" t="n">
         <v>-312128</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="1" t="n">
         <v>391308</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="1" t="n">
         <v>175392</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>지분법이익잉여금</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>-219981</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="1" t="n">
         <v>164475</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="1" t="n">
         <v>77482</v>
       </c>
-      <c r="M24" t="n">
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="n">
         <v>-219981</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="1" t="n">
         <v>164475</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="1" t="n">
         <v>77482</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="1" t="n">
         <v>-219981</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="1" t="n">
         <v>164475</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="1" t="n">
         <v>77482</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>지분법자본변동</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>40297</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="1" t="n">
         <v>-175059</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="1" t="n">
         <v>21803</v>
       </c>
-      <c r="M25" t="n">
+      <c r="J25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" s="1" t="n">
         <v>40297</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="1" t="n">
         <v>-175059</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="1" t="n">
         <v>21803</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="1" t="n">
         <v>40297</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="1" t="n">
         <v>-175059</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="1" t="n">
         <v>21803</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>569296</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="1" t="n">
         <v>893558</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="1" t="n">
         <v>1791248</v>
       </c>
-      <c r="M26" t="n">
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="n">
         <v>569296</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="1" t="n">
         <v>893558</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="1" t="n">
         <v>1791248</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="1" t="n">
         <v>569296</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="1" t="n">
         <v>893558</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="1" t="n">
         <v>1791248</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>13884</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="1" t="n">
         <v>-36545</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="1" t="n">
         <v>-6448</v>
       </c>
-      <c r="M27" t="n">
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="n">
         <v>13884</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="1" t="n">
         <v>-36545</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="1" t="n">
         <v>-6448</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="1" t="n">
         <v>13884</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="1" t="n">
         <v>-36545</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="1" t="n">
         <v>-6448</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>현금흐름위험회피파생상품평가손익</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>-227671</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="1" t="n">
         <v>218377</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="1" t="n">
         <v>5015</v>
       </c>
-      <c r="M28" t="n">
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="n">
         <v>-227671</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="1" t="n">
         <v>218377</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="1" t="n">
         <v>5015</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="1" t="n">
         <v>-227671</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="1" t="n">
         <v>218377</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="1" t="n">
         <v>5015</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>지분법자본변동</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>328032</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="1" t="n">
         <v>546504</v>
       </c>
-      <c r="M29" t="n">
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="n">
         <v>328032</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="1" t="n">
         <v>546504</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="1" t="n">
         <v>328032</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29" s="1" t="n">
         <v>546504</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>해외사업환산손익</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>455051</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="1" t="n">
         <v>701718</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="1" t="n">
         <v>1246177</v>
       </c>
-      <c r="M30" t="n">
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" s="1" t="n">
         <v>455051</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="1" t="n">
         <v>701718</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" s="1" t="n">
         <v>1246177</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30" s="1" t="n">
         <v>455051</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="1" t="n">
         <v>701718</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30" s="1" t="n">
         <v>1246177</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>-330738</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="1" t="n">
         <v>733410</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="1" t="n">
         <v>273042</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="1" t="n">
         <v>-330738</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="1" t="n">
         <v>733410</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="1" t="n">
         <v>273042</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31" s="1" t="n">
         <v>-330738</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" s="1" t="n">
         <v>733410</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31" s="1" t="n">
         <v>273042</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>확정급여제도의 재측정요소</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>-271724</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="1" t="n">
         <v>663095</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="1" t="n">
         <v>210409</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" s="1" t="n">
         <v>-271724</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32" s="1" t="n">
         <v>663095</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" s="1" t="n">
         <v>210409</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32" s="1" t="n">
         <v>-271724</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="1" t="n">
         <v>663095</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32" s="1" t="n">
         <v>210409</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>-27349</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="1" t="n">
         <v>12305</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" s="1" t="n">
         <v>3609</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" s="1" t="n">
         <v>-27349</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33" s="1" t="n">
         <v>12305</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" s="1" t="n">
         <v>3609</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33" s="1" t="n">
         <v>-27349</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" s="1" t="n">
         <v>12305</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33" s="1" t="n">
         <v>3609</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익-공정가치측정금융자산평가손익</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>-31665</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="1" t="n">
         <v>58010</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" s="1" t="n">
         <v>59024</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="1" t="n">
         <v>-31665</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" s="1" t="n">
         <v>58010</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" s="1" t="n">
         <v>59024</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34" s="1" t="n">
         <v>-31665</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" s="1" t="n">
         <v>58010</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34" s="1" t="n">
         <v>59024</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>102066</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="1" t="n">
         <v>513459</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35" s="1" t="n">
         <v>326572</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" s="1" t="n">
         <v>102066</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35" s="1" t="n">
         <v>513459</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" s="1" t="n">
         <v>326572</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35" s="1" t="n">
         <v>102066</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="1" t="n">
         <v>513459</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35" s="1" t="n">
         <v>326572</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>현금흐름위험회피 파생상품평가손익</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>-3654</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="1" t="n">
         <v>-24415</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36" s="1" t="n">
         <v>-15778</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="1" t="n">
         <v>-3654</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36" s="1" t="n">
         <v>-24415</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="1" t="n">
         <v>-15778</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" s="1" t="n">
         <v>-3654</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="1" t="n">
         <v>-24415</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36" s="1" t="n">
         <v>-15778</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>해외사업장환산손익</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>-17274</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="1" t="n">
         <v>28387</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37" s="1" t="n">
         <v>41189</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" s="1" t="n">
         <v>-17274</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" s="1" t="n">
         <v>28387</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="1" t="n">
         <v>41189</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37" s="1" t="n">
         <v>-17274</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" s="1" t="n">
         <v>28387</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37" s="1" t="n">
         <v>41189</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>122994</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="1" t="n">
         <v>509487</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38" s="1" t="n">
         <v>301161</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" s="1" t="n">
         <v>122994</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38" s="1" t="n">
         <v>509487</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" s="1" t="n">
         <v>301161</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38" s="1" t="n">
         <v>122994</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" s="1" t="n">
         <v>509487</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38" s="1" t="n">
         <v>301161</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>총포괄이익</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>12428841</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="1" t="n">
         <v>9034476</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="1" t="n">
         <v>7861139</v>
       </c>
-      <c r="M39" t="n">
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="n">
         <v>12428841</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39" s="1" t="n">
         <v>9034476</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" s="1" t="n">
         <v>7861139</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39" s="1" t="n">
         <v>12428841</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="1" t="n">
         <v>9034476</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39" s="1" t="n">
         <v>7861139</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>수익(매출액)</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="n">
         <v>88219461</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="1" t="n">
         <v>71257863</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" s="1" t="n">
         <v>60673587</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="1" t="n">
         <v>88219461</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" s="1" t="n">
         <v>71257863</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40" s="1" t="n">
         <v>60673587</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40" s="1" t="n">
         <v>88219461</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" s="1" t="n">
         <v>71257863</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40" s="1" t="n">
         <v>60673587</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>수익(매출액)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>재화의 판매로 인한 매출액</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="n">
         <v>85940137</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="1" t="n">
         <v>69184469</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" s="1" t="n">
         <v>58800977</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" s="1" t="n">
         <v>85940137</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41" s="1" t="n">
         <v>69184469</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41" s="1" t="n">
         <v>58800977</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41" s="1" t="n">
         <v>85940137</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" s="1" t="n">
         <v>69184469</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41" s="1" t="n">
         <v>58800977</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>수익(매출액)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>용역의 제공으로 인한 매출액</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="n">
         <v>750878</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="1" t="n">
         <v>714602</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" s="1" t="n">
         <v>456400</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" s="1" t="n">
         <v>750878</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42" s="1" t="n">
         <v>714602</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42" s="1" t="n">
         <v>456400</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42" s="1" t="n">
         <v>750878</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" s="1" t="n">
         <v>714602</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42" s="1" t="n">
         <v>456400</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>수익(매출액)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>건설계약으로 인한 매출액</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>785395</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="1" t="n">
         <v>646953</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="1" t="n">
         <v>754998</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="1" t="n">
         <v>785395</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" s="1" t="n">
         <v>646953</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="1" t="n">
         <v>754998</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43" s="1" t="n">
         <v>785395</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" s="1" t="n">
         <v>646953</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43" s="1" t="n">
         <v>754998</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>수익(매출액)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>공사부담금수익</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="n">
         <v>743051</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="1" t="n">
         <v>711839</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44" s="1" t="n">
         <v>661212</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="1" t="n">
         <v>743051</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44" s="1" t="n">
         <v>711839</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" s="1" t="n">
         <v>661212</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" s="1" t="n">
         <v>743051</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" s="1" t="n">
         <v>711839</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44" s="1" t="n">
         <v>661212</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>매출원가</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="n">
         <v>89699527</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="1" t="n">
         <v>100903594</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45" s="1" t="n">
         <v>63644290</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" s="1" t="n">
         <v>89699527</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45" s="1" t="n">
         <v>100903594</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" s="1" t="n">
         <v>63644290</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45" s="1" t="n">
         <v>89699527</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" s="1" t="n">
         <v>100903594</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45" s="1" t="n">
         <v>63644290</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>매출원가</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>재화의 판매로 인한 매출원가</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="n">
         <v>88066120</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="1" t="n">
         <v>99441768</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46" s="1" t="n">
         <v>62164425</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" s="1" t="n">
         <v>88066120</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46" s="1" t="n">
         <v>99441768</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" s="1" t="n">
         <v>62164425</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46" s="1" t="n">
         <v>88066120</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" s="1" t="n">
         <v>99441768</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46" s="1" t="n">
         <v>62164425</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>매출원가</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>용역의 제공으로 인한 매출원가</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="n">
         <v>629806</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="1" t="n">
         <v>520572</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47" s="1" t="n">
         <v>580902</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" s="1" t="n">
         <v>629806</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47" s="1" t="n">
         <v>520572</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47" s="1" t="n">
         <v>580902</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47" s="1" t="n">
         <v>629806</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" s="1" t="n">
         <v>520572</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47" s="1" t="n">
         <v>580902</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>매출원가</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>건설계약으로 인한 매출원가</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="n">
         <v>1003601</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="1" t="n">
         <v>941254</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48" s="1" t="n">
         <v>898963</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" s="1" t="n">
         <v>1003601</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48" s="1" t="n">
         <v>941254</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" s="1" t="n">
         <v>898963</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48" s="1" t="n">
         <v>1003601</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="1" t="n">
         <v>941254</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48" s="1" t="n">
         <v>898963</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>매출총손실</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="n">
         <v>-1480066</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="1" t="n">
         <v>-29645731</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49" s="1" t="n">
         <v>-2970703</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" s="1" t="n">
         <v>-1480066</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49" s="1" t="n">
         <v>-29645731</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" s="1" t="n">
         <v>-2970703</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49" s="1" t="n">
         <v>-1480066</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" s="1" t="n">
         <v>-29645731</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49" s="1" t="n">
         <v>-2970703</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>판매비와관리비</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="n">
         <v>3061582</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="1" t="n">
         <v>3009422</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50" s="1" t="n">
         <v>2875796</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" s="1" t="n">
         <v>3061582</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50" s="1" t="n">
         <v>3009422</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" s="1" t="n">
         <v>2875796</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50" s="1" t="n">
         <v>3061582</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" s="1" t="n">
         <v>3009422</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50" s="1" t="n">
         <v>2875796</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>영업이익(손실)</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="n">
         <v>-4541648</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="1" t="n">
         <v>-32655153</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51" s="1" t="n">
         <v>-5846499</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" s="1" t="n">
         <v>-4541648</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51" s="1" t="n">
         <v>-32655153</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" s="1" t="n">
         <v>-5846499</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51" s="1" t="n">
         <v>-4541648</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" s="1" t="n">
         <v>-32655153</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51" s="1" t="n">
         <v>-5846499</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>기타수익</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="n">
         <v>532851</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="1" t="n">
         <v>383650</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52" s="1" t="n">
         <v>372921</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" s="1" t="n">
         <v>532851</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" s="1" t="n">
         <v>383650</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" s="1" t="n">
         <v>372921</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52" s="1" t="n">
         <v>532851</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" s="1" t="n">
         <v>383650</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R52" s="1" t="n">
         <v>372921</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>기타비용</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>258905</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="1" t="n">
         <v>212150</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53" s="1" t="n">
         <v>257932</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" s="1" t="n">
         <v>258905</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" s="1" t="n">
         <v>212150</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" s="1" t="n">
         <v>257932</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53" s="1" t="n">
         <v>258905</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="1" t="n">
         <v>212150</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53" s="1" t="n">
         <v>257932</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>기타이익(손실)</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="n">
         <v>22686</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="1" t="n">
         <v>243122</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54" s="1" t="n">
         <v>8519</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="1" t="n">
         <v>22686</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" s="1" t="n">
         <v>243122</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" s="1" t="n">
         <v>8519</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="1" t="n">
         <v>22686</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" s="1" t="n">
         <v>243122</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54" s="1" t="n">
         <v>8519</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>금융수익</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="n">
         <v>1425031</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="1" t="n">
         <v>1833312</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55" s="1" t="n">
         <v>1402614</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" s="1" t="n">
         <v>1425031</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55" s="1" t="n">
         <v>1833312</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55" s="1" t="n">
         <v>1402614</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55" s="1" t="n">
         <v>1425031</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" s="1" t="n">
         <v>1833312</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55" s="1" t="n">
         <v>1402614</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>금융원가</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="n">
         <v>5347018</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="1" t="n">
         <v>4746791</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56" s="1" t="n">
         <v>3245777</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" s="1" t="n">
         <v>5347018</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56" s="1" t="n">
         <v>4746791</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56" s="1" t="n">
         <v>3245777</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56" s="1" t="n">
         <v>5347018</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" s="1" t="n">
         <v>4746791</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56" s="1" t="n">
         <v>3245777</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="1" t="n">
         <v>613026</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="1" t="n">
         <v>1310391</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57" s="1" t="n">
         <v>494584</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" s="1" t="n">
         <v>613026</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57" s="1" t="n">
         <v>1310391</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57" s="1" t="n">
         <v>494584</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57" s="1" t="n">
         <v>613026</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" s="1" t="n">
         <v>1310391</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R57" s="1" t="n">
         <v>494584</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업 투자지분 평가이익</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="n">
         <v>804141</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="1" t="n">
         <v>1393486</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58" s="1" t="n">
         <v>775588</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" s="1" t="n">
         <v>804141</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58" s="1" t="n">
         <v>1393486</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58" s="1" t="n">
         <v>775588</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58" s="1" t="n">
         <v>804141</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" s="1" t="n">
         <v>1393486</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R58" s="1" t="n">
         <v>775588</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업 투자지분 처분이익</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="1" t="n">
         <v>18204</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59" s="1" t="n">
         <v>11091</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" s="1" t="n">
         <v>18204</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59" s="1" t="n">
         <v>11091</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59" s="1" t="n">
         <v>18204</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" s="1" t="n">
         <v>11091</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59" s="1" t="n">
         <v>1844</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="1" t="inlineStr">
         <is>
           <t>관계기업/공동기업투자손상차손환입</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="n">
+      <c r="R60" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>종속기업투자주식처분이익</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="n">
+      <c r="R61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업 투자지분 평가손실</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="n">
         <v>-209085</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62" s="1" t="n">
         <v>-55193</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62" s="1" t="n">
         <v>-218532</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" s="1" t="n">
         <v>-209085</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62" s="1" t="n">
         <v>-55193</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" s="1" t="n">
         <v>-218532</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62" s="1" t="n">
         <v>-209085</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" s="1" t="n">
         <v>-55193</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62" s="1" t="n">
         <v>-218532</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업 투자지분 처분손실</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63" s="1" t="n">
         <v>-1675</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63" s="1" t="n">
         <v>-64119</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63" s="1" t="n">
         <v>-1675</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" s="1" t="n">
         <v>-64119</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" s="1" t="n">
         <v>-1675</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R63" s="1" t="n">
         <v>-64119</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="1" t="inlineStr">
         <is>
           <t>관계기업 및 공동기업 투자지분 손상차손</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64" s="1" t="n">
         <v>-5174</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64" s="1" t="n">
         <v>-5174</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" s="1" t="n">
         <v>-5174</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="1" t="inlineStr">
         <is>
           <t>종속기업 투자지분 처분손실</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="1" t="n">
         <v>-564</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65" s="1" t="n">
         <v>-32144</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65" s="1" t="n">
         <v>-197</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" s="1" t="n">
         <v>-564</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65" s="1" t="n">
         <v>-32144</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" s="1" t="n">
         <v>-197</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P65" s="1" t="n">
         <v>-564</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" s="1" t="n">
         <v>-32144</v>
       </c>
-      <c r="R65" t="n">
+      <c r="R65" s="1" t="n">
         <v>-197</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>법인세비용차감전순이익(손실)</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="n">
         <v>-7553977</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66" s="1" t="n">
         <v>-33843619</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66" s="1" t="n">
         <v>-7071570</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" s="1" t="n">
         <v>-7553977</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66" s="1" t="n">
         <v>-33843619</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" s="1" t="n">
         <v>-7071570</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P66" s="1" t="n">
         <v>-7553977</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" s="1" t="n">
         <v>-33843619</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R66" s="1" t="n">
         <v>-7071570</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>법인세수익</t>
         </is>
       </c>
-      <c r="J67" t="n">
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="n">
         <v>-2837833</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67" s="1" t="n">
         <v>-9414511</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67" s="1" t="n">
         <v>-1855989</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" s="1" t="n">
         <v>-2837833</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N67" s="1" t="n">
         <v>-9414511</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" s="1" t="n">
         <v>-1855989</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P67" s="1" t="n">
         <v>-2837833</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" s="1" t="n">
         <v>-9414511</v>
       </c>
-      <c r="R67" t="n">
+      <c r="R67" s="1" t="n">
         <v>-1855989</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>당기순손실</t>
         </is>
       </c>
-      <c r="J68" t="n">
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" s="1" t="n">
         <v>-4716144</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68" s="1" t="n">
         <v>-24429108</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68" s="1" t="n">
         <v>-5215581</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" s="1" t="n">
         <v>-4716144</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68" s="1" t="n">
         <v>-24429108</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" s="1" t="n">
         <v>-5215581</v>
       </c>
-      <c r="P68" t="n">
+      <c r="P68" s="1" t="n">
         <v>-4716144</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" s="1" t="n">
         <v>-24429108</v>
       </c>
-      <c r="R68" t="n">
+      <c r="R68" s="1" t="n">
         <v>-5215581</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>총포괄손실</t>
         </is>
       </c>
-      <c r="J69" t="n">
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" s="1" t="n">
         <v>-4944816</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69" s="1" t="n">
         <v>-23182239</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69" s="1" t="n">
         <v>-4615967</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" s="1" t="n">
         <v>-4944816</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69" s="1" t="n">
         <v>-23182239</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O69" s="1" t="n">
         <v>-4615967</v>
       </c>
-      <c r="P69" t="n">
+      <c r="P69" s="1" t="n">
         <v>-4944816</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" s="1" t="n">
         <v>-23182239</v>
       </c>
-      <c r="R69" t="n">
+      <c r="R69" s="1" t="n">
         <v>-4615967</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" s="1" t="n">
         <v/>
       </c>
-      <c r="K70" t="n">
+      <c r="K70" s="1" t="n">
         <v/>
       </c>
-      <c r="L70" t="n">
+      <c r="L70" s="1" t="n">
         <v/>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" s="1" t="n">
         <v/>
       </c>
-      <c r="N70" t="n">
+      <c r="N70" s="1" t="n">
         <v/>
       </c>
-      <c r="O70" t="n">
+      <c r="O70" s="1" t="n">
         <v/>
       </c>
-      <c r="P70" t="n">
+      <c r="P70" s="1" t="n">
         <v/>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" s="1" t="n">
         <v/>
       </c>
-      <c r="R70" t="n">
+      <c r="R70" s="1" t="n">
         <v/>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="1" t="inlineStr">
         <is>
           <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="n">
         <v>-4822549</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71" s="1" t="n">
         <v>-24466853</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71" s="1" t="n">
         <v>-5304522</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" s="1" t="n">
         <v>-4822549</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71" s="1" t="n">
         <v>-24466853</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O71" s="1" t="n">
         <v>-5304522</v>
       </c>
-      <c r="P71" t="n">
+      <c r="P71" s="1" t="n">
         <v>-4822549</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" s="1" t="n">
         <v>-24466853</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R71" s="1" t="n">
         <v>-5304522</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="1" t="inlineStr">
         <is>
           <t>비지배지분에 귀속되는 당기순이익(손실)</t>
         </is>
       </c>
-      <c r="J72" t="n">
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="n">
         <v>106405</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72" s="1" t="n">
         <v>37745</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72" s="1" t="n">
         <v>88941</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" s="1" t="n">
         <v>106405</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72" s="1" t="n">
         <v>37745</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" s="1" t="n">
         <v>88941</v>
       </c>
-      <c r="P72" t="n">
+      <c r="P72" s="1" t="n">
         <v>106405</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" s="1" t="n">
         <v>37745</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R72" s="1" t="n">
         <v>88941</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>총 포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="J73" t="n">
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" s="1" t="n">
         <v/>
       </c>
-      <c r="K73" t="n">
+      <c r="K73" s="1" t="n">
         <v/>
       </c>
-      <c r="L73" t="n">
+      <c r="L73" s="1" t="n">
         <v/>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" s="1" t="n">
         <v/>
       </c>
-      <c r="N73" t="n">
+      <c r="N73" s="1" t="n">
         <v/>
       </c>
-      <c r="O73" t="n">
+      <c r="O73" s="1" t="n">
         <v/>
       </c>
-      <c r="P73" t="n">
+      <c r="P73" s="1" t="n">
         <v/>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" s="1" t="n">
         <v/>
       </c>
-      <c r="R73" t="n">
+      <c r="R73" s="1" t="n">
         <v/>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>총 포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="1" t="inlineStr">
         <is>
           <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
         </is>
       </c>
-      <c r="J74" t="n">
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" s="1" t="n">
         <v>-5032584</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74" s="1" t="n">
         <v>-23273171</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74" s="1" t="n">
         <v>-4743513</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74" s="1" t="n">
         <v>-5032584</v>
       </c>
-      <c r="N74" t="n">
+      <c r="N74" s="1" t="n">
         <v>-23273171</v>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" s="1" t="n">
         <v>-4743513</v>
       </c>
-      <c r="P74" t="n">
+      <c r="P74" s="1" t="n">
         <v>-5032584</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" s="1" t="n">
         <v>-23273171</v>
       </c>
-      <c r="R74" t="n">
+      <c r="R74" s="1" t="n">
         <v>-4743513</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>총 포괄손익의 귀속</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>비지배지분에 귀속되는 포괄손익</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" s="1" t="n">
         <v>87768</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75" s="1" t="n">
         <v>90932</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75" s="1" t="n">
         <v>127546</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" s="1" t="n">
         <v>87768</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N75" s="1" t="n">
         <v>90932</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" s="1" t="n">
         <v>127546</v>
       </c>
-      <c r="P75" t="n">
+      <c r="P75" s="1" t="n">
         <v>87768</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" s="1" t="n">
         <v>90932</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R75" s="1" t="n">
         <v>127546</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>주당이익</t>
         </is>
       </c>
-      <c r="J76" t="n">
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" s="1" t="n">
         <v/>
       </c>
-      <c r="K76" t="n">
+      <c r="K76" s="1" t="n">
         <v/>
       </c>
-      <c r="L76" t="n">
+      <c r="L76" s="1" t="n">
         <v/>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" s="1" t="n">
         <v/>
       </c>
-      <c r="N76" t="n">
+      <c r="N76" s="1" t="n">
         <v/>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" s="1" t="n">
         <v/>
       </c>
-      <c r="P76" t="n">
+      <c r="P76" s="1" t="n">
         <v/>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" s="1" t="n">
         <v/>
       </c>
-      <c r="R76" t="n">
+      <c r="R76" s="1" t="n">
         <v/>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>주당이익</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="1" t="inlineStr">
         <is>
           <t>기본주당이익(손실) (단위 : 원)</t>
         </is>
       </c>
-      <c r="J77" t="n">
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="N77" t="n">
+      <c r="N77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="P77" t="n">
+      <c r="P77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="R77" t="n">
+      <c r="R77" s="1" t="n">
         <v>-8263</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>주당이익</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>희석주당손익  (단위 : 원)</t>
         </is>
       </c>
-      <c r="J78" t="n">
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N78" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P78" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R78" s="1" t="n">
         <v>-8263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>

--- a/data/output/연결 포괄손익계산서.xlsx
+++ b/data/output/연결 포괄손익계산서.xlsx
@@ -1426,23 +1426,35 @@
       </c>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v/>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J15" s="7" t="inlineStr">
         <is>
@@ -1459,23 +1471,35 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v/>
+      <c r="M15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -5268,32 +5292,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q70" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R70" s="1" t="n">
-        <v/>
+      <c r="J70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -5474,32 +5516,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q73" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v/>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -5680,32 +5740,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q76" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v/>
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">

--- a/data/output/연결 포괄손익계산서.xlsx
+++ b/data/output/연결 포괄손익계산서.xlsx
@@ -502,21 +502,21 @@
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K1" s="1" t="n"/>
@@ -639,19 +639,19 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)</t>
+          <t>연결당기순이익</t>
         </is>
       </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>15487100</v>
+        <v>12272301</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>55654077</v>
+        <v>7983614</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>39907450</v>
+        <v>5693077</v>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
@@ -684,55 +684,49 @@
         </is>
       </c>
       <c r="M4" s="1" t="n">
-        <v>15487100</v>
+        <v>12272301</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>55654077</v>
+        <v>7983614</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>39907450</v>
+        <v>5693077</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>15487100</v>
+        <v>12272301</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>55654077</v>
+        <v>7983614</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>39907450</v>
+        <v>5693077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>3350311</v>
+        <v>156540</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>4005664</v>
+        <v>1050862</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10002299</v>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2168062</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-228672</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1246869</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>599614</v>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
@@ -750,44 +744,44 @@
         </is>
       </c>
       <c r="M5" s="1" t="n">
-        <v>3350311</v>
+        <v>-72132</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>4005664</v>
+        <v>2297731</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>10002299</v>
+        <v>2767676</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>3350311</v>
+        <v>-36066</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>4005664</v>
+        <v>1148865.5</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>10002299</v>
+        <v>1383838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n">
-        <v>665943</v>
+        <v>-412756</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-822137</v>
+        <v>157304</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2508106</v>
+        <v>376814</v>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
@@ -820,48 +814,48 @@
         </is>
       </c>
       <c r="M6" s="1" t="n">
-        <v>665943</v>
+        <v>-412756</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>-822137</v>
+        <v>157304</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>2508106</v>
+        <v>376814</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>665943</v>
+        <v>-412756</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>-822137</v>
+        <v>157304</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>2508106</v>
+        <v>376814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치금융자산평가손익</t>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1481091</v>
+        <v>79056</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-1969498</v>
+        <v>-223420</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2980896</v>
+        <v>102137</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
@@ -894,48 +888,48 @@
         </is>
       </c>
       <c r="M7" s="1" t="n">
-        <v>1481091</v>
+        <v>79056</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>-1969498</v>
+        <v>-223420</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>2980896</v>
+        <v>102137</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>1481091</v>
+        <v>79056</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>-1969498</v>
+        <v>-223420</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>2980896</v>
+        <v>102137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
+          <t>확정급여제도의 재측정요소</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>13150</v>
+        <v>-312128</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-6318</v>
+        <v>391308</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>51816</v>
+        <v>175392</v>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
@@ -968,48 +962,48 @@
         </is>
       </c>
       <c r="M8" s="1" t="n">
-        <v>13150</v>
+        <v>-312128</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>-6318</v>
+        <v>391308</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>51816</v>
+        <v>175392</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>13150</v>
+        <v>-312128</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>-6318</v>
+        <v>391308</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>51816</v>
+        <v>175392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>순확정급여부채(자산) 재측정요소</t>
+          <t>지분법이익잉여금</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-828298</v>
+        <v>-219981</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1153679</v>
+        <v>164475</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-524606</v>
+        <v>77482</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
@@ -1042,44 +1036,48 @@
         </is>
       </c>
       <c r="M9" s="1" t="n">
-        <v>-828298</v>
+        <v>-219981</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>1153679</v>
+        <v>164475</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>-524606</v>
+        <v>77482</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>-828298</v>
+        <v>-219981</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>1153679</v>
+        <v>164475</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-524606</v>
+        <v>77482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D10" s="1" t="n">
-        <v>2684368</v>
+        <v>40297</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4827801</v>
+        <v>-175059</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>7494193</v>
+        <v>21803</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
@@ -1112,48 +1110,44 @@
         </is>
       </c>
       <c r="M10" s="1" t="n">
-        <v>2684368</v>
+        <v>40297</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>4827801</v>
+        <v>-175059</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>7494193</v>
+        <v>21803</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>2684368</v>
+        <v>40297</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>4827801</v>
+        <v>-175059</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>7494193</v>
+        <v>21803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n">
-        <v>61962</v>
+        <v>569296</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-44192</v>
+        <v>893558</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>160163</v>
+        <v>1791248</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
@@ -1186,48 +1180,48 @@
         </is>
       </c>
       <c r="M11" s="1" t="n">
-        <v>61962</v>
+        <v>569296</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>-44192</v>
+        <v>893558</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>160163</v>
+        <v>1791248</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>61962</v>
+        <v>569296</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>-44192</v>
+        <v>893558</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>160163</v>
+        <v>1791248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>해외사업장환산외환차이</t>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>2621479</v>
+        <v>13884</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>4884886</v>
+        <v>-36545</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>7283620</v>
+        <v>-6448</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
@@ -1260,33 +1254,33 @@
         </is>
       </c>
       <c r="M12" s="1" t="n">
-        <v>2621479</v>
+        <v>13884</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>4884886</v>
+        <v>-36545</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>7283620</v>
+        <v>-6448</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>2621479</v>
+        <v>13884</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>4884886</v>
+        <v>-36545</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>7283620</v>
+        <v>-6448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1295,13 +1289,13 @@
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>927</v>
+        <v>-227671</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-12893</v>
+        <v>218377</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>50410</v>
+        <v>5015</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -1334,40 +1328,48 @@
         </is>
       </c>
       <c r="M13" s="1" t="n">
-        <v>927</v>
+        <v>-227671</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>-12893</v>
+        <v>218377</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>50410</v>
+        <v>5015</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>927</v>
+        <v>-227671</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>-12893</v>
+        <v>218377</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>50410</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>총포괄손익(*3)</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="n">
-        <v>18837411</v>
+        <v>328032</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>59659741</v>
+        <v>10008</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>49909749</v>
+        <v>546504</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
@@ -1400,46 +1402,48 @@
         </is>
       </c>
       <c r="M14" s="1" t="n">
-        <v>18837411</v>
+        <v>328032</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>59659741</v>
+        <v>10008</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>49909749</v>
+        <v>546504</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>18837411</v>
+        <v>328032</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>59659741</v>
+        <v>10008</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>49909749</v>
+        <v>546504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>해외사업환산손익</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>455051</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>701718</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1246177</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
@@ -1471,72 +1475,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M15" s="1" t="n">
+        <v>455051</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>701718</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>1246177</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>455051</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>701718</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>1246177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n">
-        <v>17845661</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>58745107</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>49037912</v>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-330738</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>733410</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>273042</v>
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
@@ -1554,53 +1546,63 @@
         </is>
       </c>
       <c r="M16" s="1" t="n">
-        <v>17845661</v>
+        <v>-330738</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>58745107</v>
+        <v>733410</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>49037912</v>
+        <v>273042</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>17845661</v>
+        <v>-330738</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>58745107</v>
+        <v>733410</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>49037912</v>
+        <v>273042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n">
-        <v>991750</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>914634</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>871837</v>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>확정급여제도의 재측정요소</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G17" s="1" t="n">
-        <v>224415</v>
+        <v>-271724</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>800080</v>
+        <v>663095</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>922502</v>
+        <v>210409</v>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
@@ -1618,36 +1620,40 @@
         </is>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1216165</v>
+        <v>-271724</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1714714</v>
+        <v>663095</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1794339</v>
+        <v>210409</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>608082.5</v>
+        <v>-271724</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>857357</v>
+        <v>663095</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>897169.5</v>
+        <v>210409</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1664,13 +1670,13 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>12204426</v>
+        <v>-27349</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>8234396</v>
+        <v>12305</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>6938637</v>
+        <v>3609</v>
       </c>
       <c r="J18" s="7" t="inlineStr">
         <is>
@@ -1688,32 +1694,40 @@
         </is>
       </c>
       <c r="M18" s="1" t="n">
-        <v>12204426</v>
+        <v>-27349</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>8234396</v>
+        <v>12305</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>6938637</v>
+        <v>3609</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>12204426</v>
+        <v>-27349</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>8234396</v>
+        <v>12305</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>6938637</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>연결당기순이익</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
+        </is>
+      </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1730,13 +1744,13 @@
         </is>
       </c>
       <c r="G19" s="1" t="n">
-        <v>12272301</v>
+        <v>-31665</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>7983614</v>
+        <v>58010</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>5693077</v>
+        <v>59024</v>
       </c>
       <c r="J19" s="7" t="inlineStr">
         <is>
@@ -1754,22 +1768,22 @@
         </is>
       </c>
       <c r="M19" s="1" t="n">
-        <v>12272301</v>
+        <v>-31665</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>7983614</v>
+        <v>58010</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>5693077</v>
+        <v>59024</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>12272301</v>
+        <v>-31665</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>7983614</v>
+        <v>58010</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>5693077</v>
+        <v>59024</v>
       </c>
     </row>
     <row r="20">
@@ -1778,7 +1792,11 @@
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="7" t="inlineStr">
         <is>
@@ -1796,40 +1814,46 @@
         </is>
       </c>
       <c r="G20" s="1" t="n">
-        <v>156540</v>
+        <v>102066</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1050862</v>
+        <v>513459</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>2168062</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>-228672</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>1246869</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>599614</v>
+        <v>326572</v>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M20" s="1" t="n">
-        <v>-72132</v>
+        <v>102066</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>2297731</v>
+        <v>513459</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>2767676</v>
+        <v>326572</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>-36066</v>
+        <v>102066</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>1148865.5</v>
+        <v>513459</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>1383838</v>
+        <v>326572</v>
       </c>
     </row>
     <row r="21">
@@ -1840,10 +1864,14 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n"/>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피 파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1860,13 +1888,13 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-412756</v>
+        <v>-3654</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>157304</v>
+        <v>-24415</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>376814</v>
+        <v>-15778</v>
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
@@ -1884,22 +1912,22 @@
         </is>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-412756</v>
+        <v>-3654</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>157304</v>
+        <v>-24415</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>376814</v>
+        <v>-15778</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>-412756</v>
+        <v>-3654</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>157304</v>
+        <v>-24415</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>376814</v>
+        <v>-15778</v>
       </c>
     </row>
     <row r="22">
@@ -1910,12 +1938,12 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+          <t>해외사업장환산손익</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1934,13 +1962,13 @@
         </is>
       </c>
       <c r="G22" s="1" t="n">
-        <v>79056</v>
+        <v>-17274</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>-223420</v>
+        <v>28387</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>102137</v>
+        <v>41189</v>
       </c>
       <c r="J22" s="7" t="inlineStr">
         <is>
@@ -1958,22 +1986,22 @@
         </is>
       </c>
       <c r="M22" s="1" t="n">
-        <v>79056</v>
+        <v>-17274</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>-223420</v>
+        <v>28387</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>102137</v>
+        <v>41189</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>79056</v>
+        <v>-17274</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>-223420</v>
+        <v>28387</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>102137</v>
+        <v>41189</v>
       </c>
     </row>
     <row r="23">
@@ -1984,12 +2012,12 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>확정급여제도의 재측정요소</t>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -2008,13 +2036,13 @@
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>-312128</v>
+        <v>122994</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>391308</v>
+        <v>509487</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>175392</v>
+        <v>301161</v>
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
@@ -2032,63 +2060,55 @@
         </is>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-312128</v>
+        <v>122994</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>391308</v>
+        <v>509487</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>175392</v>
+        <v>301161</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>-312128</v>
+        <v>122994</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>391308</v>
+        <v>509487</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>175392</v>
+        <v>301161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>지분법이익잉여금</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>-219981</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>164475</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>77482</v>
+          <t>총포괄이익</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n">
+        <v>12428841</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>9034476</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>7861139</v>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J24" s="7" t="inlineStr">
         <is>
@@ -2106,40 +2126,32 @@
         </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>-219981</v>
+        <v>12428841</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>164475</v>
+        <v>9034476</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>77482</v>
+        <v>7861139</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>-219981</v>
+        <v>12428841</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>164475</v>
+        <v>9034476</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>77482</v>
+        <v>7861139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
       <c r="D25" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2155,14 +2167,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="1" t="n">
-        <v>40297</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>-175059</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>21803</v>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
@@ -2179,60 +2197,72 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="1" t="n">
-        <v>40297</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>-175059</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>21803</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>40297</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>-175059</v>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>21803</v>
+      <c r="M25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>569296</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>893558</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>1791248</v>
+      <c r="D26" s="1" t="n">
+        <v>12204426</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>8234396</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>6938637</v>
+      </c>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J26" s="7" t="inlineStr">
         <is>
@@ -2250,114 +2280,100 @@
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>569296</v>
+        <v>12204426</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>893558</v>
+        <v>8234396</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>1791248</v>
+        <v>6938637</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>569296</v>
+        <v>12204426</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>893558</v>
+        <v>8234396</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>1791248</v>
+        <v>6938637</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>13884</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>-36545</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>-6448</v>
-      </c>
-      <c r="J27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n">
+        <v>224415</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>800080</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>922502</v>
+      </c>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>991750</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>914634</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>871837</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>13884</v>
+        <v>1216165</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>-36545</v>
+        <v>1714714</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>-6448</v>
+        <v>1794339</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>13884</v>
+        <v>608082.5</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>-36545</v>
+        <v>857357</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-6448</v>
+        <v>897169.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>현금흐름위험회피파생상품평가손익</t>
-        </is>
-      </c>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n"/>
       <c r="D28" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2373,65 +2389,57 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>-227671</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>218377</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>5015</v>
-      </c>
-      <c r="J28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>17845661</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>58745107</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>49037912</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-227671</v>
+        <v>17845661</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>218377</v>
+        <v>58745107</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>5015</v>
+        <v>49037912</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>-227671</v>
+        <v>17845661</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>218377</v>
+        <v>58745107</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>5015</v>
+        <v>49037912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
       <c r="D29" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2448,13 +2456,13 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>328032</v>
+        <v>88219461</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>10008</v>
+        <v>71257863</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>546504</v>
+        <v>60673587</v>
       </c>
       <c r="J29" s="7" t="inlineStr">
         <is>
@@ -2472,40 +2480,36 @@
         </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>328032</v>
+        <v>88219461</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>10008</v>
+        <v>71257863</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>546504</v>
+        <v>60673587</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>328032</v>
+        <v>88219461</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>10008</v>
+        <v>71257863</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>546504</v>
+        <v>60673587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>해외사업환산손익</t>
-        </is>
-      </c>
+          <t>재화의 판매로 인한 매출액</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2522,13 +2526,13 @@
         </is>
       </c>
       <c r="G30" s="1" t="n">
-        <v>455051</v>
+        <v>85940137</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>701718</v>
+        <v>69184469</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1246177</v>
+        <v>58800977</v>
       </c>
       <c r="J30" s="7" t="inlineStr">
         <is>
@@ -2546,33 +2550,33 @@
         </is>
       </c>
       <c r="M30" s="1" t="n">
-        <v>455051</v>
+        <v>85940137</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>701718</v>
+        <v>69184469</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>1246177</v>
+        <v>58800977</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>455051</v>
+        <v>85940137</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>701718</v>
+        <v>69184469</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>1246177</v>
+        <v>58800977</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+          <t>용역의 제공으로 인한 매출액</t>
         </is>
       </c>
       <c r="C31" s="1" t="n"/>
@@ -2591,65 +2595,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>-330738</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>733410</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>273042</v>
+      <c r="G31" s="1" t="n">
+        <v>750878</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>714602</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>456400</v>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>-330738</v>
+        <v>750878</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>733410</v>
+        <v>714602</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>273042</v>
+        <v>456400</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>-330738</v>
+        <v>750878</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>733410</v>
+        <v>714602</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>273042</v>
+        <v>456400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>확정급여제도의 재측정요소</t>
-        </is>
-      </c>
+          <t>건설계약으로 인한 매출액</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n"/>
       <c r="D32" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2665,65 +2665,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>-271724</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>663095</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>210409</v>
+      <c r="G32" s="1" t="n">
+        <v>785395</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>646953</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>754998</v>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M32" s="1" t="n">
-        <v>-271724</v>
+        <v>785395</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>663095</v>
+        <v>646953</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>210409</v>
+        <v>754998</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>-271724</v>
+        <v>785395</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>663095</v>
+        <v>646953</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>210409</v>
+        <v>754998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>공사부담금수익</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2739,65 +2735,57 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>-27349</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>12305</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>3609</v>
+      <c r="G33" s="1" t="n">
+        <v>743051</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>711839</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>661212</v>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-27349</v>
+        <v>743051</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>12305</v>
+        <v>711839</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>3609</v>
+        <v>661212</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>-27349</v>
+        <v>743051</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>12305</v>
+        <v>711839</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>3609</v>
+        <v>661212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
-        </is>
-      </c>
+          <t>매출원가</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
       <c r="D34" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2813,58 +2801,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>-31665</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>58010</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>59024</v>
+      <c r="G34" s="1" t="n">
+        <v>89699527</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>100903594</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>63644290</v>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M34" s="1" t="n">
-        <v>-31665</v>
+        <v>89699527</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>58010</v>
+        <v>100903594</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>59024</v>
+        <v>63644290</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>-31665</v>
+        <v>89699527</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>58010</v>
+        <v>100903594</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>59024</v>
+        <v>63644290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+          <t>재화의 판매로 인한 매출원가</t>
         </is>
       </c>
       <c r="C35" s="1" t="n"/>
@@ -2883,65 +2871,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>102066</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>513459</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>326572</v>
+      <c r="G35" s="1" t="n">
+        <v>88066120</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>99441768</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>62164425</v>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M35" s="1" t="n">
-        <v>102066</v>
+        <v>88066120</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>513459</v>
+        <v>99441768</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>326572</v>
+        <v>62164425</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>102066</v>
+        <v>88066120</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>513459</v>
+        <v>99441768</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>326572</v>
+        <v>62164425</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>현금흐름위험회피 파생상품평가손익</t>
-        </is>
-      </c>
+          <t>용역의 제공으로 인한 매출원가</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n"/>
       <c r="D36" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2957,65 +2941,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>-3654</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>-24415</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>-15778</v>
+      <c r="G36" s="1" t="n">
+        <v>629806</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>520572</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>580902</v>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M36" s="1" t="n">
-        <v>-3654</v>
+        <v>629806</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>-24415</v>
+        <v>520572</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>-15778</v>
+        <v>580902</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>-3654</v>
+        <v>629806</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>-24415</v>
+        <v>520572</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-15778</v>
+        <v>580902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>해외사업장환산손익</t>
-        </is>
-      </c>
+          <t>건설계약으로 인한 매출원가</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n"/>
       <c r="D37" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3031,65 +3011,57 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>-17274</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>28387</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>41189</v>
+      <c r="G37" s="1" t="n">
+        <v>1003601</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>941254</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>898963</v>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M37" s="1" t="n">
-        <v>-17274</v>
+        <v>1003601</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>28387</v>
+        <v>941254</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>41189</v>
+        <v>898963</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>-17274</v>
+        <v>1003601</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>28387</v>
+        <v>941254</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>41189</v>
+        <v>898963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>매출총손실</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
       <c r="D38" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3105,53 +3077,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>122994</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>509487</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>301161</v>
+      <c r="G38" s="1" t="n">
+        <v>-1480066</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>-29645731</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>-2970703</v>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M38" s="1" t="n">
-        <v>122994</v>
+        <v>-1480066</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>509487</v>
+        <v>-29645731</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>301161</v>
+        <v>-2970703</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>122994</v>
+        <v>-1480066</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>509487</v>
+        <v>-29645731</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>301161</v>
+        <v>-2970703</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>총포괄이익</t>
+          <t>판매비와관리비</t>
         </is>
       </c>
       <c r="B39" s="1" t="n"/>
@@ -3172,13 +3144,13 @@
         </is>
       </c>
       <c r="G39" s="1" t="n">
-        <v>12428841</v>
+        <v>3061582</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>9034476</v>
+        <v>3009422</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>7861139</v>
+        <v>2875796</v>
       </c>
       <c r="J39" s="7" t="inlineStr">
         <is>
@@ -3196,28 +3168,28 @@
         </is>
       </c>
       <c r="M39" s="1" t="n">
-        <v>12428841</v>
+        <v>3061582</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>9034476</v>
+        <v>3009422</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>7861139</v>
+        <v>2875796</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>12428841</v>
+        <v>3061582</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>9034476</v>
+        <v>3009422</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>7861139</v>
+        <v>2875796</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>영업이익(손실)</t>
         </is>
       </c>
       <c r="B40" s="1" t="n"/>
@@ -3237,60 +3209,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>88219461</v>
-      </c>
-      <c r="K40" s="1" t="n">
-        <v>71257863</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>60673587</v>
+      <c r="G40" s="1" t="n">
+        <v>-4541648</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>-32655153</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>-5846499</v>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M40" s="1" t="n">
-        <v>88219461</v>
+        <v>-4541648</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>71257863</v>
+        <v>-32655153</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>60673587</v>
+        <v>-5846499</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>88219461</v>
+        <v>-4541648</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>71257863</v>
+        <v>-32655153</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>60673587</v>
+        <v>-5846499</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>재화의 판매로 인한 매출액</t>
-        </is>
-      </c>
+          <t>기타수익</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="7" t="inlineStr">
         <is>
@@ -3307,60 +3275,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>85940137</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>69184469</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>58800977</v>
+      <c r="G41" s="1" t="n">
+        <v>532851</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>383650</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>372921</v>
+      </c>
+      <c r="J41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M41" s="1" t="n">
-        <v>85940137</v>
+        <v>532851</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>69184469</v>
+        <v>383650</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>58800977</v>
+        <v>372921</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>85940137</v>
+        <v>532851</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>69184469</v>
+        <v>383650</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>58800977</v>
+        <v>372921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>용역의 제공으로 인한 매출액</t>
-        </is>
-      </c>
+          <t>기타비용</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="7" t="inlineStr">
         <is>
@@ -3377,60 +3341,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>750878</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>714602</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>456400</v>
+      <c r="G42" s="1" t="n">
+        <v>258905</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>212150</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>257932</v>
+      </c>
+      <c r="J42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M42" s="1" t="n">
-        <v>750878</v>
+        <v>258905</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>714602</v>
+        <v>212150</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>456400</v>
+        <v>257932</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>750878</v>
+        <v>258905</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>714602</v>
+        <v>212150</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>456400</v>
+        <v>257932</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>건설계약으로 인한 매출액</t>
-        </is>
-      </c>
+          <t>기타이익(손실)</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="7" t="inlineStr">
         <is>
@@ -3447,60 +3407,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>785395</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>646953</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>754998</v>
+      <c r="G43" s="1" t="n">
+        <v>22686</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>243122</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>8519</v>
+      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M43" s="1" t="n">
-        <v>785395</v>
+        <v>22686</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>646953</v>
+        <v>243122</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>754998</v>
+        <v>8519</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>785395</v>
+        <v>22686</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>646953</v>
+        <v>243122</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>754998</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>공사부담금수익</t>
-        </is>
-      </c>
+          <t>금융수익</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="7" t="inlineStr">
         <is>
@@ -3517,53 +3473,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>743051</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>711839</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>661212</v>
+      <c r="G44" s="1" t="n">
+        <v>1425031</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1833312</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>1402614</v>
+      </c>
+      <c r="J44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M44" s="1" t="n">
-        <v>743051</v>
+        <v>1425031</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>711839</v>
+        <v>1833312</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>661212</v>
+        <v>1402614</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>743051</v>
+        <v>1425031</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>711839</v>
+        <v>1833312</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>661212</v>
+        <v>1402614</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>금융원가</t>
         </is>
       </c>
       <c r="B45" s="1" t="n"/>
@@ -3583,60 +3539,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>89699527</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>100903594</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>63644290</v>
+      <c r="G45" s="1" t="n">
+        <v>5347018</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>4746791</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>3245777</v>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M45" s="1" t="n">
-        <v>89699527</v>
+        <v>5347018</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>100903594</v>
+        <v>4746791</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>63644290</v>
+        <v>3245777</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>89699527</v>
+        <v>5347018</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>100903594</v>
+        <v>4746791</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>63644290</v>
+        <v>3245777</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>재화의 판매로 인한 매출원가</t>
-        </is>
-      </c>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="7" t="inlineStr">
         <is>
@@ -3653,58 +3605,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>88066120</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>99441768</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>62164425</v>
+      <c r="G46" s="1" t="n">
+        <v>613026</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>1310391</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>494584</v>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M46" s="1" t="n">
-        <v>88066120</v>
+        <v>613026</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>99441768</v>
+        <v>1310391</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>62164425</v>
+        <v>494584</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>88066120</v>
+        <v>613026</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>99441768</v>
+        <v>1310391</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>62164425</v>
+        <v>494584</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>용역의 제공으로 인한 매출원가</t>
+          <t>관계기업 및 공동기업 투자지분 평가이익</t>
         </is>
       </c>
       <c r="C47" s="1" t="n"/>
@@ -3723,58 +3675,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>629806</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>520572</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>580902</v>
+      <c r="G47" s="1" t="n">
+        <v>804141</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>1393486</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>775588</v>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M47" s="1" t="n">
-        <v>629806</v>
+        <v>804141</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>520572</v>
+        <v>1393486</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>580902</v>
+        <v>775588</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>629806</v>
+        <v>804141</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>520572</v>
+        <v>1393486</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>580902</v>
+        <v>775588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>건설계약으로 인한 매출원가</t>
+          <t>관계기업 및 공동기업 투자지분 처분이익</t>
         </is>
       </c>
       <c r="C48" s="1" t="n"/>
@@ -3793,56 +3745,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>1003601</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>941254</v>
-      </c>
-      <c r="L48" s="1" t="n">
-        <v>898963</v>
+      <c r="G48" s="1" t="n">
+        <v>18204</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>11091</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="J48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M48" s="1" t="n">
-        <v>1003601</v>
+        <v>18204</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>941254</v>
+        <v>11091</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>898963</v>
+        <v>1844</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>1003601</v>
+        <v>18204</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>941254</v>
+        <v>11091</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>898963</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>매출총손실</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>관계기업/공동기업투자손상차손환입</t>
+        </is>
+      </c>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="7" t="inlineStr">
         <is>
@@ -3859,56 +3815,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>-1480066</v>
-      </c>
-      <c r="K49" s="1" t="n">
-        <v>-29645731</v>
-      </c>
-      <c r="L49" s="1" t="n">
-        <v>-2970703</v>
+      <c r="G49" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M49" s="1" t="n">
-        <v>-1480066</v>
+        <v>347</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>-29645731</v>
+        <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-2970703</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-1480066</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>-29645731</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-2970703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>판매비와관리비</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>종속기업투자주식처분이익</t>
+        </is>
+      </c>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="7" t="inlineStr">
         <is>
@@ -3925,56 +3885,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>3061582</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>3009422</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>2875796</v>
+      <c r="G50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M50" s="1" t="n">
-        <v>3061582</v>
+        <v>2</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>3009422</v>
+        <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>2875796</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>3061582</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>3009422</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>2875796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>영업이익(손실)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 평가손실</t>
+        </is>
+      </c>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="7" t="inlineStr">
         <is>
@@ -3991,56 +3955,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>-4541648</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>-32655153</v>
-      </c>
-      <c r="L51" s="1" t="n">
-        <v>-5846499</v>
+      <c r="G51" s="1" t="n">
+        <v>-209085</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>-55193</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>-218532</v>
+      </c>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M51" s="1" t="n">
-        <v>-4541648</v>
+        <v>-209085</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>-32655153</v>
+        <v>-55193</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-5846499</v>
+        <v>-218532</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-4541648</v>
+        <v>-209085</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>-32655153</v>
+        <v>-55193</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-5846499</v>
+        <v>-218532</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>기타수익</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 처분손실</t>
+        </is>
+      </c>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="7" t="inlineStr">
         <is>
@@ -4057,56 +4025,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>532851</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>383650</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>372921</v>
+      <c r="G52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>-1675</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>-64119</v>
+      </c>
+      <c r="J52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M52" s="1" t="n">
-        <v>532851</v>
+        <v>0</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>383650</v>
+        <v>-1675</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>372921</v>
+        <v>-64119</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>532851</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>383650</v>
+        <v>-1675</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>372921</v>
+        <v>-64119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>기타비용</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 손상차손</t>
+        </is>
+      </c>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="7" t="inlineStr">
         <is>
@@ -4123,56 +4095,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>258905</v>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v>212150</v>
-      </c>
-      <c r="L53" s="1" t="n">
-        <v>257932</v>
+      <c r="G53" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M53" s="1" t="n">
-        <v>258905</v>
+        <v>-19</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>212150</v>
+        <v>-5174</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>257932</v>
+        <v>0</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>258905</v>
+        <v>-19</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>212150</v>
+        <v>-5174</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>257932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>기타이익(손실)</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>종속기업 투자지분 처분손실</t>
+        </is>
+      </c>
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="7" t="inlineStr">
         <is>
@@ -4189,53 +4165,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>22686</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>243122</v>
-      </c>
-      <c r="L54" s="1" t="n">
-        <v>8519</v>
+      <c r="G54" s="1" t="n">
+        <v>-564</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>-32144</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>-197</v>
+      </c>
+      <c r="J54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M54" s="1" t="n">
-        <v>22686</v>
+        <v>-564</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>243122</v>
+        <v>-32144</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>8519</v>
+        <v>-197</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>22686</v>
+        <v>-564</v>
       </c>
       <c r="Q54" s="1" t="n">
-        <v>243122</v>
+        <v>-32144</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>8519</v>
+        <v>-197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>금융수익</t>
+          <t>법인세비용차감전순이익(손실)</t>
         </is>
       </c>
       <c r="B55" s="1" t="n"/>
@@ -4255,53 +4231,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>1425031</v>
-      </c>
-      <c r="K55" s="1" t="n">
-        <v>1833312</v>
-      </c>
-      <c r="L55" s="1" t="n">
-        <v>1402614</v>
+      <c r="G55" s="1" t="n">
+        <v>-7553977</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>-33843619</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>-7071570</v>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M55" s="1" t="n">
-        <v>1425031</v>
+        <v>-7553977</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>1833312</v>
+        <v>-33843619</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>1402614</v>
+        <v>-7071570</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>1425031</v>
+        <v>-7553977</v>
       </c>
       <c r="Q55" s="1" t="n">
-        <v>1833312</v>
+        <v>-33843619</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>1402614</v>
+        <v>-7071570</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>금융원가</t>
+          <t>법인세수익</t>
         </is>
       </c>
       <c r="B56" s="1" t="n"/>
@@ -4321,53 +4297,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>5347018</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>4746791</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>3245777</v>
+      <c r="G56" s="1" t="n">
+        <v>-2837833</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>-9414511</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>-1855989</v>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M56" s="1" t="n">
-        <v>5347018</v>
+        <v>-2837833</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>4746791</v>
+        <v>-9414511</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>3245777</v>
+        <v>-1855989</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>5347018</v>
+        <v>-2837833</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>4746791</v>
+        <v>-9414511</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>3245777</v>
+        <v>-1855989</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>당기순손실</t>
         </is>
       </c>
       <c r="B57" s="1" t="n"/>
@@ -4387,60 +4363,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>613026</v>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>1310391</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>494584</v>
+      <c r="G57" s="1" t="n">
+        <v>-4716144</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>-24429108</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>-5215581</v>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M57" s="1" t="n">
-        <v>613026</v>
+        <v>-4716144</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>1310391</v>
+        <v>-24429108</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>494584</v>
+        <v>-5215581</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>613026</v>
+        <v>-4716144</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>1310391</v>
+        <v>-24429108</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>494584</v>
+        <v>-5215581</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 평가이익</t>
-        </is>
-      </c>
+          <t>총포괄손실</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="7" t="inlineStr">
         <is>
@@ -4457,60 +4429,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>804141</v>
-      </c>
-      <c r="K58" s="1" t="n">
-        <v>1393486</v>
-      </c>
-      <c r="L58" s="1" t="n">
-        <v>775588</v>
+      <c r="G58" s="1" t="n">
+        <v>-4944816</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>-23182239</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>-4615967</v>
+      </c>
+      <c r="J58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M58" s="1" t="n">
-        <v>804141</v>
+        <v>-4944816</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>1393486</v>
+        <v>-23182239</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>775588</v>
+        <v>-4615967</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>804141</v>
+        <v>-4944816</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>1393486</v>
+        <v>-23182239</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>775588</v>
+        <v>-4615967</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 처분이익</t>
-        </is>
-      </c>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="7" t="inlineStr">
         <is>
@@ -4542,43 +4510,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J59" s="1" t="n">
-        <v>18204</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>11091</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>18204</v>
-      </c>
-      <c r="N59" s="1" t="n">
-        <v>11091</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="P59" s="1" t="n">
-        <v>18204</v>
-      </c>
-      <c r="Q59" s="1" t="n">
-        <v>11091</v>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>1844</v>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>관계기업/공동기업투자손상차손환입</t>
+          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
         </is>
       </c>
       <c r="C60" s="1" t="n"/>
@@ -4597,58 +4583,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>0</v>
+      <c r="G60" s="1" t="n">
+        <v>-4822549</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>-24466853</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>-5304522</v>
+      </c>
+      <c r="J60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M60" s="1" t="n">
-        <v>347</v>
+        <v>-4822549</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>0</v>
+        <v>-24466853</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>0</v>
+        <v>-5304522</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>347</v>
+        <v>-4822549</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>0</v>
+        <v>-24466853</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-5304522</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>종속기업투자주식처분이익</t>
+          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
         </is>
       </c>
       <c r="C61" s="1" t="n"/>
@@ -4667,60 +4653,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>0</v>
+      <c r="G61" s="1" t="n">
+        <v>106405</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>37745</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>88941</v>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M61" s="1" t="n">
-        <v>2</v>
+        <v>106405</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>0</v>
+        <v>37745</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>0</v>
+        <v>88941</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>2</v>
+        <v>106405</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>0</v>
+        <v>37745</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>88941</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 평가손실</t>
-        </is>
-      </c>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="7" t="inlineStr">
         <is>
@@ -4752,43 +4734,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J62" s="1" t="n">
-        <v>-209085</v>
-      </c>
-      <c r="K62" s="1" t="n">
-        <v>-55193</v>
-      </c>
-      <c r="L62" s="1" t="n">
-        <v>-218532</v>
-      </c>
-      <c r="M62" s="1" t="n">
-        <v>-209085</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>-55193</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>-218532</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>-209085</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>-55193</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>-218532</v>
+      <c r="J62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>총 포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 처분손실</t>
+          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
         </is>
       </c>
       <c r="C63" s="1" t="n"/>
@@ -4807,58 +4807,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1" t="n">
-        <v>-1675</v>
-      </c>
-      <c r="L63" s="1" t="n">
-        <v>-64119</v>
+      <c r="G63" s="1" t="n">
+        <v>-5032584</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>-23273171</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>-4743513</v>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M63" s="1" t="n">
-        <v>0</v>
+        <v>-5032584</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>-1675</v>
+        <v>-23273171</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-64119</v>
+        <v>-4743513</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>0</v>
+        <v>-5032584</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>-1675</v>
+        <v>-23273171</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-64119</v>
+        <v>-4743513</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>총 포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 손상차손</t>
+          <t>비지배지분에 귀속되는 포괄손익</t>
         </is>
       </c>
       <c r="C64" s="1" t="n"/>
@@ -4877,60 +4877,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J64" s="1" t="n">
-        <v>-19</v>
-      </c>
-      <c r="K64" s="1" t="n">
-        <v>-5174</v>
-      </c>
-      <c r="L64" s="1" t="n">
-        <v>0</v>
+      <c r="G64" s="1" t="n">
+        <v>87768</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>90932</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>127546</v>
+      </c>
+      <c r="J64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M64" s="1" t="n">
-        <v>-19</v>
+        <v>87768</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>-5174</v>
+        <v>90932</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>0</v>
+        <v>127546</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-19</v>
+        <v>87768</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>-5174</v>
+        <v>90932</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>127546</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>종속기업 투자지분 처분손실</t>
-        </is>
-      </c>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="7" t="inlineStr">
         <is>
@@ -4962,41 +4958,63 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J65" s="1" t="n">
-        <v>-564</v>
-      </c>
-      <c r="K65" s="1" t="n">
-        <v>-32144</v>
-      </c>
-      <c r="L65" s="1" t="n">
-        <v>-197</v>
-      </c>
-      <c r="M65" s="1" t="n">
-        <v>-564</v>
-      </c>
-      <c r="N65" s="1" t="n">
-        <v>-32144</v>
-      </c>
-      <c r="O65" s="1" t="n">
-        <v>-197</v>
-      </c>
-      <c r="P65" s="1" t="n">
-        <v>-564</v>
-      </c>
-      <c r="Q65" s="1" t="n">
-        <v>-32144</v>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>-197</v>
+      <c r="J65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>법인세비용차감전순이익(손실)</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n"/>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="7" t="inlineStr">
         <is>
@@ -5013,56 +5031,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" s="1" t="n">
-        <v>-7553977</v>
-      </c>
-      <c r="K66" s="1" t="n">
-        <v>-33843619</v>
-      </c>
-      <c r="L66" s="1" t="n">
-        <v>-7071570</v>
+      <c r="G66" s="1" t="n">
+        <v>-7512</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>-38112</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>-8263</v>
+      </c>
+      <c r="J66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M66" s="1" t="n">
-        <v>-7553977</v>
+        <v>-7512</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>-33843619</v>
+        <v>-38112</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-7071570</v>
+        <v>-8263</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-7553977</v>
+        <v>-7512</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>-33843619</v>
+        <v>-38112</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-7071570</v>
+        <v>-8263</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>법인세수익</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n"/>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>희석주당손익  (단위 : 원)</t>
+        </is>
+      </c>
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="7" t="inlineStr">
         <is>
@@ -5079,53 +5101,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J67" s="1" t="n">
-        <v>-2837833</v>
-      </c>
-      <c r="K67" s="1" t="n">
-        <v>-9414511</v>
-      </c>
-      <c r="L67" s="1" t="n">
-        <v>-1855989</v>
+      <c r="G67" s="1" t="n">
+        <v>-7512</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>-38112</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>-8263</v>
+      </c>
+      <c r="J67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M67" s="1" t="n">
-        <v>-2837833</v>
+        <v>-7512</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>-9414511</v>
+        <v>-38112</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-1855989</v>
+        <v>-8263</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-2837833</v>
+        <v>-7512</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>-9414511</v>
+        <v>-38112</v>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1855989</v>
+        <v>-8263</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>당기순손실</t>
+          <t>당기순이익(손실)</t>
         </is>
       </c>
       <c r="B68" s="1" t="n"/>
@@ -5161,37 +5183,37 @@
         </is>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-4716144</v>
+        <v>15487100</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-24429108</v>
+        <v>55654077</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>-5215581</v>
+        <v>39907450</v>
       </c>
       <c r="M68" s="1" t="n">
-        <v>-4716144</v>
+        <v>15487100</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>-24429108</v>
+        <v>55654077</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>-5215581</v>
+        <v>39907450</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-4716144</v>
+        <v>15487100</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>-24429108</v>
+        <v>55654077</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5215581</v>
+        <v>39907450</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>총포괄손실</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B69" s="1" t="n"/>
@@ -5227,40 +5249,44 @@
         </is>
       </c>
       <c r="J69" s="1" t="n">
-        <v>-4944816</v>
+        <v>3350311</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-23182239</v>
+        <v>4005664</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>-4615967</v>
+        <v>10002299</v>
       </c>
       <c r="M69" s="1" t="n">
-        <v>-4944816</v>
+        <v>3350311</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>-23182239</v>
+        <v>4005664</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-4615967</v>
+        <v>10002299</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>-4944816</v>
+        <v>3350311</v>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>-23182239</v>
+        <v>4005664</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4615967</v>
+        <v>10002299</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n"/>
+          <t>기타포괄손익(*4)</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+        </is>
+      </c>
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="7" t="inlineStr">
         <is>
@@ -5292,64 +5318,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J70" s="1" t="n">
+        <v>665943</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>-822137</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>2508106</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>665943</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>-822137</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>2508106</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>665943</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>-822137</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>2508106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치금융자산평가손익</t>
+        </is>
+      </c>
       <c r="D71" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5381,45 +5393,49 @@
         </is>
       </c>
       <c r="J71" s="1" t="n">
-        <v>-4822549</v>
+        <v>1481091</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-24466853</v>
+        <v>-1969498</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>-5304522</v>
+        <v>2980896</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>-4822549</v>
+        <v>1481091</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>-24466853</v>
+        <v>-1969498</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>-5304522</v>
+        <v>2980896</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>-4822549</v>
+        <v>1481091</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>-24466853</v>
+        <v>-1969498</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-5304522</v>
+        <v>2980896</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D72" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5451,41 +5467,49 @@
         </is>
       </c>
       <c r="J72" s="1" t="n">
-        <v>106405</v>
+        <v>13150</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>37745</v>
+        <v>-6318</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>88941</v>
+        <v>51816</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>106405</v>
+        <v>13150</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>37745</v>
+        <v>-6318</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>88941</v>
+        <v>51816</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>106405</v>
+        <v>13150</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>37745</v>
+        <v>-6318</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>88941</v>
+        <v>51816</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+          <t>기타포괄손익(*4)</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>순확정급여부채(자산) 재측정요소</t>
+        </is>
+      </c>
       <c r="D73" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5516,61 +5540,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J73" s="1" t="n">
+        <v>-828298</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>1153679</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>-524606</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>-828298</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>1153679</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>-524606</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>-828298</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>1153679</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>-524606</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
       <c r="C74" s="1" t="n"/>
@@ -5605,45 +5611,49 @@
         </is>
       </c>
       <c r="J74" s="1" t="n">
-        <v>-5032584</v>
+        <v>2684368</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-23273171</v>
+        <v>4827801</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>-4743513</v>
+        <v>7494193</v>
       </c>
       <c r="M74" s="1" t="n">
-        <v>-5032584</v>
+        <v>2684368</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>-23273171</v>
+        <v>4827801</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>-4743513</v>
+        <v>7494193</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>-5032584</v>
+        <v>2684368</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>-23273171</v>
+        <v>4827801</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-4743513</v>
+        <v>7494193</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 포괄손익</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="n"/>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D75" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5675,41 +5685,49 @@
         </is>
       </c>
       <c r="J75" s="1" t="n">
-        <v>87768</v>
+        <v>61962</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>90932</v>
+        <v>-44192</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>127546</v>
+        <v>160163</v>
       </c>
       <c r="M75" s="1" t="n">
-        <v>87768</v>
+        <v>61962</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>90932</v>
+        <v>-44192</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>127546</v>
+        <v>160163</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>87768</v>
+        <v>61962</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>90932</v>
+        <v>-44192</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>127546</v>
+        <v>160163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+          <t>기타포괄손익(*4)</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>해외사업장환산외환차이</t>
+        </is>
+      </c>
       <c r="D76" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5740,64 +5758,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J76" s="1" t="n">
+        <v>2621479</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>4884886</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>7283620</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>2621479</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>4884886</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>7283620</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>2621479</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>4884886</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>7283620</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>기본주당이익(손실) (단위 : 원)</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="n"/>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D77" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5829,44 +5833,40 @@
         </is>
       </c>
       <c r="J77" s="1" t="n">
-        <v>-7512</v>
+        <v>927</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-38112</v>
+        <v>-12893</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>-8263</v>
+        <v>50410</v>
       </c>
       <c r="M77" s="1" t="n">
-        <v>-7512</v>
+        <v>927</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>-38112</v>
+        <v>-12893</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>-8263</v>
+        <v>50410</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-7512</v>
+        <v>927</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>-38112</v>
+        <v>-12893</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-8263</v>
+        <v>50410</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>희석주당손익  (단위 : 원)</t>
-        </is>
-      </c>
+          <t>총포괄손익(*3)</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="7" t="inlineStr">
         <is>
@@ -5899,31 +5899,31 @@
         </is>
       </c>
       <c r="J78" s="1" t="n">
-        <v>-7512</v>
+        <v>18837411</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-38112</v>
+        <v>59659741</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>-8263</v>
+        <v>49909749</v>
       </c>
       <c r="M78" s="1" t="n">
-        <v>-7512</v>
+        <v>18837411</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>-38112</v>
+        <v>59659741</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>-8263</v>
+        <v>49909749</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>-7512</v>
+        <v>18837411</v>
       </c>
       <c r="Q78" s="1" t="n">
-        <v>-38112</v>
+        <v>59659741</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-8263</v>
+        <v>49909749</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/연결 포괄손익계산서.xlsx
+++ b/data/output/연결 포괄손익계산서.xlsx
@@ -502,21 +502,21 @@
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="K1" s="1" t="n"/>
@@ -639,19 +639,19 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>연결당기순이익</t>
+          <t>당기순이익(손실)</t>
         </is>
       </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>12272301</v>
+        <v>15487100</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>7983614</v>
+        <v>55654077</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>5693077</v>
+        <v>39907450</v>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
@@ -684,49 +684,55 @@
         </is>
       </c>
       <c r="M4" s="1" t="n">
-        <v>12272301</v>
+        <v>15487100</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>7983614</v>
+        <v>55654077</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>5693077</v>
+        <v>39907450</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>12272301</v>
+        <v>15487100</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>7983614</v>
+        <v>55654077</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>5693077</v>
+        <v>39907450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>156540</v>
+        <v>3350311</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1050862</v>
+        <v>4005664</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2168062</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>-228672</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1246869</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>599614</v>
+        <v>10002299</v>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
@@ -744,44 +750,44 @@
         </is>
       </c>
       <c r="M5" s="1" t="n">
-        <v>-72132</v>
+        <v>3350311</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>2297731</v>
+        <v>4005664</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>2767676</v>
+        <v>10002299</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>-36066</v>
+        <v>3350311</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1148865.5</v>
+        <v>4005664</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>1383838</v>
+        <v>10002299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n">
-        <v>-412756</v>
+        <v>665943</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>157304</v>
+        <v>-822137</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>376814</v>
+        <v>2508106</v>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
@@ -814,48 +820,48 @@
         </is>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-412756</v>
+        <v>665943</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>157304</v>
+        <v>-822137</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>376814</v>
+        <v>2508106</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>-412756</v>
+        <v>665943</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>157304</v>
+        <v>-822137</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>376814</v>
+        <v>2508106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+          <t>기타포괄손익-공정가치금융자산평가손익</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>79056</v>
+        <v>1481091</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-223420</v>
+        <v>-1969498</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>102137</v>
+        <v>2980896</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
@@ -888,48 +894,48 @@
         </is>
       </c>
       <c r="M7" s="1" t="n">
-        <v>79056</v>
+        <v>1481091</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>-223420</v>
+        <v>-1969498</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>102137</v>
+        <v>2980896</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>79056</v>
+        <v>1481091</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>-223420</v>
+        <v>-1969498</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>102137</v>
+        <v>2980896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>확정급여제도의 재측정요소</t>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-312128</v>
+        <v>13150</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>391308</v>
+        <v>-6318</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>175392</v>
+        <v>51816</v>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
@@ -962,48 +968,48 @@
         </is>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-312128</v>
+        <v>13150</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>391308</v>
+        <v>-6318</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>175392</v>
+        <v>51816</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>-312128</v>
+        <v>13150</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>391308</v>
+        <v>-6318</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>175392</v>
+        <v>51816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>지분법이익잉여금</t>
+          <t>순확정급여부채(자산) 재측정요소</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-219981</v>
+        <v>-828298</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>164475</v>
+        <v>1153679</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>77482</v>
+        <v>-524606</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
@@ -1036,48 +1042,44 @@
         </is>
       </c>
       <c r="M9" s="1" t="n">
-        <v>-219981</v>
+        <v>-828298</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>164475</v>
+        <v>1153679</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>77482</v>
+        <v>-524606</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>-219981</v>
+        <v>-828298</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>164475</v>
+        <v>1153679</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>77482</v>
+        <v>-524606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>40297</v>
+        <v>2684368</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-175059</v>
+        <v>4827801</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>21803</v>
+        <v>7494193</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
@@ -1110,44 +1112,48 @@
         </is>
       </c>
       <c r="M10" s="1" t="n">
-        <v>40297</v>
+        <v>2684368</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>-175059</v>
+        <v>4827801</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>21803</v>
+        <v>7494193</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>40297</v>
+        <v>2684368</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>-175059</v>
+        <v>4827801</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>21803</v>
+        <v>7494193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n"/>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="n">
-        <v>569296</v>
+        <v>61962</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>893558</v>
+        <v>-44192</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1791248</v>
+        <v>160163</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
@@ -1180,48 +1186,48 @@
         </is>
       </c>
       <c r="M11" s="1" t="n">
-        <v>569296</v>
+        <v>61962</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>893558</v>
+        <v>-44192</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>1791248</v>
+        <v>160163</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>569296</v>
+        <v>61962</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>893558</v>
+        <v>-44192</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>1791248</v>
+        <v>160163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+          <t>해외사업장환산외환차이</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>13884</v>
+        <v>2621479</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-36545</v>
+        <v>4884886</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-6448</v>
+        <v>7283620</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
@@ -1254,33 +1260,33 @@
         </is>
       </c>
       <c r="M12" s="1" t="n">
-        <v>13884</v>
+        <v>2621479</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>-36545</v>
+        <v>4884886</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>-6448</v>
+        <v>7283620</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>13884</v>
+        <v>2621479</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>-36545</v>
+        <v>4884886</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-6448</v>
+        <v>7283620</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1289,13 +1295,13 @@
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-227671</v>
+        <v>927</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>218377</v>
+        <v>-12893</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>5015</v>
+        <v>50410</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -1328,48 +1334,40 @@
         </is>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-227671</v>
+        <v>927</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>218377</v>
+        <v>-12893</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>5015</v>
+        <v>50410</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>-227671</v>
+        <v>927</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>218377</v>
+        <v>-12893</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>5015</v>
+        <v>50410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>총포괄손익(*3)</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>328032</v>
+        <v>18837411</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>10008</v>
+        <v>59659741</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>546504</v>
+        <v>49909749</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
@@ -1402,48 +1400,46 @@
         </is>
       </c>
       <c r="M14" s="1" t="n">
-        <v>328032</v>
+        <v>18837411</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>10008</v>
+        <v>59659741</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>546504</v>
+        <v>49909749</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>328032</v>
+        <v>18837411</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>10008</v>
+        <v>59659741</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>546504</v>
+        <v>49909749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>해외사업환산손익</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1246177</v>
+          <t>포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
@@ -1475,60 +1471,72 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>1246177</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>1246177</v>
+      <c r="M15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>-330738</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>733410</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>273042</v>
+      <c r="D16" s="1" t="n">
+        <v>17845661</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>58745107</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>49037912</v>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J16" s="7" t="inlineStr">
         <is>
@@ -1546,63 +1554,53 @@
         </is>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-330738</v>
+        <v>17845661</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>733410</v>
+        <v>58745107</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>273042</v>
+        <v>49037912</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>-330738</v>
+        <v>17845661</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>733410</v>
+        <v>58745107</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>273042</v>
+        <v>49037912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>확정급여제도의 재측정요소</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>991750</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>914634</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>871837</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-271724</v>
+        <v>224415</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>663095</v>
+        <v>800080</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>210409</v>
+        <v>922502</v>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
@@ -1620,40 +1618,36 @@
         </is>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-271724</v>
+        <v>1216165</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>663095</v>
+        <v>1714714</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>210409</v>
+        <v>1794339</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-271724</v>
+        <v>608082.5</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>663095</v>
+        <v>857357</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>210409</v>
+        <v>897169.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n"/>
       <c r="D18" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1670,13 +1664,13 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-27349</v>
+        <v>12204426</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>12305</v>
+        <v>8234396</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>3609</v>
+        <v>6938637</v>
       </c>
       <c r="J18" s="7" t="inlineStr">
         <is>
@@ -1694,40 +1688,32 @@
         </is>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-27349</v>
+        <v>12204426</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>12305</v>
+        <v>8234396</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>3609</v>
+        <v>6938637</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-27349</v>
+        <v>12204426</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>12305</v>
+        <v>8234396</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>3609</v>
+        <v>6938637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
-        </is>
-      </c>
+          <t>연결당기순이익</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
       <c r="D19" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1744,13 +1730,13 @@
         </is>
       </c>
       <c r="G19" s="1" t="n">
-        <v>-31665</v>
+        <v>12272301</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>58010</v>
+        <v>7983614</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>59024</v>
+        <v>5693077</v>
       </c>
       <c r="J19" s="7" t="inlineStr">
         <is>
@@ -1768,22 +1754,22 @@
         </is>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-31665</v>
+        <v>12272301</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>58010</v>
+        <v>7983614</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>59024</v>
+        <v>5693077</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>-31665</v>
+        <v>12272301</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>58010</v>
+        <v>7983614</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>59024</v>
+        <v>5693077</v>
       </c>
     </row>
     <row r="20">
@@ -1792,11 +1778,7 @@
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
+      <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="7" t="inlineStr">
         <is>
@@ -1814,46 +1796,40 @@
         </is>
       </c>
       <c r="G20" s="1" t="n">
-        <v>102066</v>
+        <v>156540</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>513459</v>
+        <v>1050862</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>326572</v>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2168062</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>-228672</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1246869</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>599614</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>102066</v>
+        <v>-72132</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>513459</v>
+        <v>2297731</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>326572</v>
+        <v>2767676</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>102066</v>
+        <v>-36066</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>513459</v>
+        <v>1148865.5</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>326572</v>
+        <v>1383838</v>
       </c>
     </row>
     <row r="21">
@@ -1864,14 +1840,10 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>현금흐름위험회피 파생상품평가손익</t>
-        </is>
-      </c>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1888,13 +1860,13 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-3654</v>
+        <v>-412756</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-24415</v>
+        <v>157304</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-15778</v>
+        <v>376814</v>
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
@@ -1912,22 +1884,22 @@
         </is>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-3654</v>
+        <v>-412756</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-24415</v>
+        <v>157304</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-15778</v>
+        <v>376814</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>-3654</v>
+        <v>-412756</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>-24415</v>
+        <v>157304</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-15778</v>
+        <v>376814</v>
       </c>
     </row>
     <row r="22">
@@ -1938,12 +1910,12 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>해외사업장환산손익</t>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1962,13 +1934,13 @@
         </is>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-17274</v>
+        <v>79056</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>28387</v>
+        <v>-223420</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>41189</v>
+        <v>102137</v>
       </c>
       <c r="J22" s="7" t="inlineStr">
         <is>
@@ -1986,22 +1958,22 @@
         </is>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-17274</v>
+        <v>79056</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>28387</v>
+        <v>-223420</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>41189</v>
+        <v>102137</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>-17274</v>
+        <v>79056</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>28387</v>
+        <v>-223420</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>41189</v>
+        <v>102137</v>
       </c>
     </row>
     <row r="23">
@@ -2012,12 +1984,12 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+          <t>확정급여제도의 재측정요소</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -2036,13 +2008,13 @@
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>122994</v>
+        <v>-312128</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>509487</v>
+        <v>391308</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>301161</v>
+        <v>175392</v>
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
@@ -2060,55 +2032,63 @@
         </is>
       </c>
       <c r="M23" s="1" t="n">
-        <v>122994</v>
+        <v>-312128</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>509487</v>
+        <v>391308</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>301161</v>
+        <v>175392</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>122994</v>
+        <v>-312128</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>509487</v>
+        <v>391308</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>301161</v>
+        <v>175392</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>총포괄이익</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n">
-        <v>12428841</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>9034476</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>7861139</v>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>지분법이익잉여금</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-219981</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>164475</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>77482</v>
       </c>
       <c r="J24" s="7" t="inlineStr">
         <is>
@@ -2126,32 +2106,40 @@
         </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>12428841</v>
+        <v>-219981</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>9034476</v>
+        <v>164475</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>7861139</v>
+        <v>77482</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>12428841</v>
+        <v>-219981</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>9034476</v>
+        <v>164475</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>7861139</v>
+        <v>77482</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2167,20 +2155,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>21803</v>
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
@@ -2197,72 +2179,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>21803</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>21803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n">
-        <v>12204426</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>8234396</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>6938637</v>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>569296</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>893558</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1791248</v>
       </c>
       <c r="J26" s="7" t="inlineStr">
         <is>
@@ -2280,100 +2250,114 @@
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>12204426</v>
+        <v>569296</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>8234396</v>
+        <v>893558</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>6938637</v>
+        <v>1791248</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>12204426</v>
+        <v>569296</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>8234396</v>
+        <v>893558</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>6938637</v>
+        <v>1791248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n">
-        <v>224415</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>800080</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>922502</v>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>991750</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>914634</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>871837</v>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>13884</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-36545</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>-6448</v>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M27" s="1" t="n">
-        <v>1216165</v>
+        <v>13884</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>1714714</v>
+        <v>-36545</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>1794339</v>
+        <v>-6448</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>608082.5</v>
+        <v>13884</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>857357</v>
+        <v>-36545</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>897169.5</v>
+        <v>-6448</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2389,57 +2373,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>17845661</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>58745107</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>49037912</v>
+      <c r="G28" s="1" t="n">
+        <v>-227671</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>218377</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>5015</v>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M28" s="1" t="n">
-        <v>17845661</v>
+        <v>-227671</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>58745107</v>
+        <v>218377</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>49037912</v>
+        <v>5015</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>17845661</v>
+        <v>-227671</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>58745107</v>
+        <v>218377</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>49037912</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2456,13 +2448,13 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>88219461</v>
+        <v>328032</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>71257863</v>
+        <v>10008</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>60673587</v>
+        <v>546504</v>
       </c>
       <c r="J29" s="7" t="inlineStr">
         <is>
@@ -2480,36 +2472,40 @@
         </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>88219461</v>
+        <v>328032</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>71257863</v>
+        <v>10008</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>60673587</v>
+        <v>546504</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>88219461</v>
+        <v>328032</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>71257863</v>
+        <v>10008</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>60673587</v>
+        <v>546504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>재화의 판매로 인한 매출액</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>해외사업환산손익</t>
+        </is>
+      </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2526,13 +2522,13 @@
         </is>
       </c>
       <c r="G30" s="1" t="n">
-        <v>85940137</v>
+        <v>455051</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>69184469</v>
+        <v>701718</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>58800977</v>
+        <v>1246177</v>
       </c>
       <c r="J30" s="7" t="inlineStr">
         <is>
@@ -2550,33 +2546,33 @@
         </is>
       </c>
       <c r="M30" s="1" t="n">
-        <v>85940137</v>
+        <v>455051</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>69184469</v>
+        <v>701718</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>58800977</v>
+        <v>1246177</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>85940137</v>
+        <v>455051</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>69184469</v>
+        <v>701718</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>58800977</v>
+        <v>1246177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>용역의 제공으로 인한 매출액</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
       <c r="C31" s="1" t="n"/>
@@ -2595,61 +2591,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>750878</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>714602</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>456400</v>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>-330738</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>733410</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>273042</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>750878</v>
+        <v>-330738</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>714602</v>
+        <v>733410</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>456400</v>
+        <v>273042</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>750878</v>
+        <v>-330738</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>714602</v>
+        <v>733410</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>456400</v>
+        <v>273042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>건설계약으로 인한 매출액</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>확정급여제도의 재측정요소</t>
+        </is>
+      </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2665,61 +2665,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>785395</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>646953</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>754998</v>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>-271724</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>663095</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>210409</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>785395</v>
+        <v>-271724</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>646953</v>
+        <v>663095</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>754998</v>
+        <v>210409</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>785395</v>
+        <v>-271724</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>646953</v>
+        <v>663095</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>754998</v>
+        <v>210409</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>공사부담금수익</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2735,57 +2739,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>743051</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>711839</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>661212</v>
-      </c>
-      <c r="J33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>-27349</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>12305</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>3609</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>743051</v>
+        <v>-27349</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>711839</v>
+        <v>12305</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>661212</v>
+        <v>3609</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>743051</v>
+        <v>-27349</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>711839</v>
+        <v>12305</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>661212</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
+        </is>
+      </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2801,58 +2813,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>89699527</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>100903594</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>63644290</v>
-      </c>
-      <c r="J34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>-31665</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>58010</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>59024</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>89699527</v>
+        <v>-31665</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>100903594</v>
+        <v>58010</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>63644290</v>
+        <v>59024</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>89699527</v>
+        <v>-31665</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>100903594</v>
+        <v>58010</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>63644290</v>
+        <v>59024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>재화의 판매로 인한 매출원가</t>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
       <c r="C35" s="1" t="n"/>
@@ -2871,61 +2883,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>88066120</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>99441768</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>62164425</v>
-      </c>
-      <c r="J35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>102066</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>513459</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>326572</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>88066120</v>
+        <v>102066</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>99441768</v>
+        <v>513459</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>62164425</v>
+        <v>326572</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>88066120</v>
+        <v>102066</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>99441768</v>
+        <v>513459</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>62164425</v>
+        <v>326572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>용역의 제공으로 인한 매출원가</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="n"/>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피 파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2941,61 +2957,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>629806</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>520572</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>580902</v>
-      </c>
-      <c r="J36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>-3654</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>-24415</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>-15778</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>629806</v>
+        <v>-3654</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>520572</v>
+        <v>-24415</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>580902</v>
+        <v>-15778</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>629806</v>
+        <v>-3654</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>520572</v>
+        <v>-24415</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>580902</v>
+        <v>-15778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>건설계약으로 인한 매출원가</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="n"/>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>해외사업장환산손익</t>
+        </is>
+      </c>
       <c r="D37" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3011,57 +3031,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>1003601</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>941254</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>898963</v>
-      </c>
-      <c r="J37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>-17274</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>28387</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>41189</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>1003601</v>
+        <v>-17274</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>941254</v>
+        <v>28387</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>898963</v>
+        <v>41189</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>1003601</v>
+        <v>-17274</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>941254</v>
+        <v>28387</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>898963</v>
+        <v>41189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>매출총손실</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3077,53 +3105,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>-1480066</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>-29645731</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>-2970703</v>
-      </c>
-      <c r="J38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>122994</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>509487</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>301161</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>-1480066</v>
+        <v>122994</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>-29645731</v>
+        <v>509487</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-2970703</v>
+        <v>301161</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>-1480066</v>
+        <v>122994</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>-29645731</v>
+        <v>509487</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-2970703</v>
+        <v>301161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>판매비와관리비</t>
+          <t>총포괄이익</t>
         </is>
       </c>
       <c r="B39" s="1" t="n"/>
@@ -3144,13 +3172,13 @@
         </is>
       </c>
       <c r="G39" s="1" t="n">
-        <v>3061582</v>
+        <v>12428841</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>3009422</v>
+        <v>9034476</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>2875796</v>
+        <v>7861139</v>
       </c>
       <c r="J39" s="7" t="inlineStr">
         <is>
@@ -3168,28 +3196,28 @@
         </is>
       </c>
       <c r="M39" s="1" t="n">
-        <v>3061582</v>
+        <v>12428841</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>3009422</v>
+        <v>9034476</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>2875796</v>
+        <v>7861139</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>3061582</v>
+        <v>12428841</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>3009422</v>
+        <v>9034476</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>2875796</v>
+        <v>7861139</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>영업이익(손실)</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B40" s="1" t="n"/>
@@ -3209,56 +3237,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>-4541648</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>-32655153</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>-5846499</v>
-      </c>
-      <c r="J40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>88219461</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>71257863</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>60673587</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>-4541648</v>
+        <v>88219461</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>-32655153</v>
+        <v>71257863</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>-5846499</v>
+        <v>60673587</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>-4541648</v>
+        <v>88219461</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>-32655153</v>
+        <v>71257863</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-5846499</v>
+        <v>60673587</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>기타수익</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>재화의 판매로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="7" t="inlineStr">
         <is>
@@ -3275,56 +3307,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G41" s="1" t="n">
-        <v>532851</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>383650</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>372921</v>
-      </c>
-      <c r="J41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>85940137</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>69184469</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>58800977</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>532851</v>
+        <v>85940137</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>383650</v>
+        <v>69184469</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>372921</v>
+        <v>58800977</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>532851</v>
+        <v>85940137</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>383650</v>
+        <v>69184469</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>372921</v>
+        <v>58800977</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>기타비용</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>용역의 제공으로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="7" t="inlineStr">
         <is>
@@ -3341,56 +3377,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>258905</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>212150</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>257932</v>
-      </c>
-      <c r="J42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>750878</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>714602</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>456400</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>258905</v>
+        <v>750878</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>212150</v>
+        <v>714602</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>257932</v>
+        <v>456400</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>258905</v>
+        <v>750878</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>212150</v>
+        <v>714602</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>257932</v>
+        <v>456400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>기타이익(손실)</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>건설계약으로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="7" t="inlineStr">
         <is>
@@ -3407,56 +3447,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G43" s="1" t="n">
-        <v>22686</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>243122</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>8519</v>
-      </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>785395</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>646953</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>754998</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>22686</v>
+        <v>785395</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>243122</v>
+        <v>646953</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>8519</v>
+        <v>754998</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>22686</v>
+        <v>785395</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>243122</v>
+        <v>646953</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>8519</v>
+        <v>754998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>금융수익</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>공사부담금수익</t>
+        </is>
+      </c>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="7" t="inlineStr">
         <is>
@@ -3473,53 +3517,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G44" s="1" t="n">
-        <v>1425031</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>1833312</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>1402614</v>
-      </c>
-      <c r="J44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>743051</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>711839</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>661212</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>1425031</v>
+        <v>743051</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>1833312</v>
+        <v>711839</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>1402614</v>
+        <v>661212</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>1425031</v>
+        <v>743051</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>1833312</v>
+        <v>711839</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>1402614</v>
+        <v>661212</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>금융원가</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B45" s="1" t="n"/>
@@ -3539,56 +3583,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G45" s="1" t="n">
-        <v>5347018</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>4746791</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>3245777</v>
-      </c>
-      <c r="J45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>89699527</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>100903594</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>63644290</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>5347018</v>
+        <v>89699527</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>4746791</v>
+        <v>100903594</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>3245777</v>
+        <v>63644290</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>5347018</v>
+        <v>89699527</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>4746791</v>
+        <v>100903594</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>3245777</v>
+        <v>63644290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n"/>
+          <t>매출원가</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>재화의 판매로 인한 매출원가</t>
+        </is>
+      </c>
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="7" t="inlineStr">
         <is>
@@ -3605,58 +3653,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G46" s="1" t="n">
-        <v>613026</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>1310391</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>494584</v>
-      </c>
-      <c r="J46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>88066120</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>99441768</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>62164425</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>613026</v>
+        <v>88066120</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>1310391</v>
+        <v>99441768</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>494584</v>
+        <v>62164425</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>613026</v>
+        <v>88066120</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>1310391</v>
+        <v>99441768</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>494584</v>
+        <v>62164425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 평가이익</t>
+          <t>용역의 제공으로 인한 매출원가</t>
         </is>
       </c>
       <c r="C47" s="1" t="n"/>
@@ -3675,58 +3723,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>804141</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>1393486</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>775588</v>
-      </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>629806</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>520572</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>580902</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>804141</v>
+        <v>629806</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>1393486</v>
+        <v>520572</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>775588</v>
+        <v>580902</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>804141</v>
+        <v>629806</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>1393486</v>
+        <v>520572</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>775588</v>
+        <v>580902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 처분이익</t>
+          <t>건설계약으로 인한 매출원가</t>
         </is>
       </c>
       <c r="C48" s="1" t="n"/>
@@ -3745,60 +3793,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>18204</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>11091</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>1844</v>
-      </c>
-      <c r="J48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>1003601</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>941254</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>898963</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>18204</v>
+        <v>1003601</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>11091</v>
+        <v>941254</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>1844</v>
+        <v>898963</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>18204</v>
+        <v>1003601</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>11091</v>
+        <v>941254</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>1844</v>
+        <v>898963</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>관계기업/공동기업투자손상차손환입</t>
-        </is>
-      </c>
+          <t>매출총손실</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="7" t="inlineStr">
         <is>
@@ -3815,60 +3859,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>-1480066</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>-29645731</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>-2970703</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>347</v>
+        <v>-1480066</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>0</v>
+        <v>-29645731</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>0</v>
+        <v>-2970703</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>347</v>
+        <v>-1480066</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>0</v>
+        <v>-29645731</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-2970703</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>종속기업투자주식처분이익</t>
-        </is>
-      </c>
+          <t>판매비와관리비</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="7" t="inlineStr">
         <is>
@@ -3885,60 +3925,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>3061582</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>3009422</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>2875796</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>2</v>
+        <v>3061582</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>0</v>
+        <v>3009422</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>0</v>
+        <v>2875796</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>2</v>
+        <v>3061582</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>0</v>
+        <v>3009422</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>2875796</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 평가손실</t>
-        </is>
-      </c>
+          <t>영업이익(손실)</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="7" t="inlineStr">
         <is>
@@ -3955,60 +3991,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>-209085</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>-55193</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>-218532</v>
-      </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>-4541648</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>-32655153</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>-5846499</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>-209085</v>
+        <v>-4541648</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>-55193</v>
+        <v>-32655153</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-218532</v>
+        <v>-5846499</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>-209085</v>
+        <v>-4541648</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>-55193</v>
+        <v>-32655153</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-218532</v>
+        <v>-5846499</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 처분손실</t>
-        </is>
-      </c>
+          <t>기타수익</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="7" t="inlineStr">
         <is>
@@ -4025,60 +4057,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>-1675</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>-64119</v>
-      </c>
-      <c r="J52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>532851</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>383650</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>372921</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>0</v>
+        <v>532851</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>-1675</v>
+        <v>383650</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>-64119</v>
+        <v>372921</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>0</v>
+        <v>532851</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>-1675</v>
+        <v>383650</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-64119</v>
+        <v>372921</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 손상차손</t>
-        </is>
-      </c>
+          <t>기타비용</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="7" t="inlineStr">
         <is>
@@ -4095,60 +4123,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>-19</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>-5174</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>258905</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>212150</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>257932</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>-19</v>
+        <v>258905</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>-5174</v>
+        <v>212150</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>0</v>
+        <v>257932</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>-19</v>
+        <v>258905</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>-5174</v>
+        <v>212150</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>257932</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>종속기업 투자지분 처분손실</t>
-        </is>
-      </c>
+          <t>기타이익(손실)</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="7" t="inlineStr">
         <is>
@@ -4165,53 +4189,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>-564</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>-32144</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>-197</v>
-      </c>
-      <c r="J54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>22686</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>243122</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>8519</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>-564</v>
+        <v>22686</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>-32144</v>
+        <v>243122</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>-197</v>
+        <v>8519</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>-564</v>
+        <v>22686</v>
       </c>
       <c r="Q54" s="1" t="n">
-        <v>-32144</v>
+        <v>243122</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-197</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>법인세비용차감전순이익(손실)</t>
+          <t>금융수익</t>
         </is>
       </c>
       <c r="B55" s="1" t="n"/>
@@ -4231,53 +4255,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>-7553977</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>-33843619</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>-7071570</v>
-      </c>
-      <c r="J55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>1425031</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>1833312</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>1402614</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>-7553977</v>
+        <v>1425031</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>-33843619</v>
+        <v>1833312</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>-7071570</v>
+        <v>1402614</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>-7553977</v>
+        <v>1425031</v>
       </c>
       <c r="Q55" s="1" t="n">
-        <v>-33843619</v>
+        <v>1833312</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-7071570</v>
+        <v>1402614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>법인세수익</t>
+          <t>금융원가</t>
         </is>
       </c>
       <c r="B56" s="1" t="n"/>
@@ -4297,53 +4321,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G56" s="1" t="n">
-        <v>-2837833</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>-9414511</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>-1855989</v>
-      </c>
-      <c r="J56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>5347018</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>4746791</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>3245777</v>
       </c>
       <c r="M56" s="1" t="n">
-        <v>-2837833</v>
+        <v>5347018</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>-9414511</v>
+        <v>4746791</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>-1855989</v>
+        <v>3245777</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>-2837833</v>
+        <v>5347018</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>-9414511</v>
+        <v>4746791</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1855989</v>
+        <v>3245777</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>당기순손실</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B57" s="1" t="n"/>
@@ -4363,56 +4387,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>-4716144</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>-24429108</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>-5215581</v>
-      </c>
-      <c r="J57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>613026</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>1310391</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>494584</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>-4716144</v>
+        <v>613026</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>-24429108</v>
+        <v>1310391</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>-5215581</v>
+        <v>494584</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>-4716144</v>
+        <v>613026</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>-24429108</v>
+        <v>1310391</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-5215581</v>
+        <v>494584</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>총포괄손실</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 평가이익</t>
+        </is>
+      </c>
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="7" t="inlineStr">
         <is>
@@ -4429,56 +4457,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G58" s="1" t="n">
-        <v>-4944816</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>-23182239</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>-4615967</v>
-      </c>
-      <c r="J58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>804141</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>1393486</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>775588</v>
       </c>
       <c r="M58" s="1" t="n">
-        <v>-4944816</v>
+        <v>804141</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>-23182239</v>
+        <v>1393486</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>-4615967</v>
+        <v>775588</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>-4944816</v>
+        <v>804141</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>-23182239</v>
+        <v>1393486</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-4615967</v>
+        <v>775588</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 처분이익</t>
+        </is>
+      </c>
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="7" t="inlineStr">
         <is>
@@ -4510,61 +4542,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J59" s="1" t="n">
+        <v>18204</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>11091</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>18204</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>11091</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>18204</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>11091</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>1844</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
+          <t>관계기업/공동기업투자손상차손환입</t>
         </is>
       </c>
       <c r="C60" s="1" t="n"/>
@@ -4583,58 +4597,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>-4822549</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>-24466853</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>-5304522</v>
-      </c>
-      <c r="J60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>-4822549</v>
+        <v>347</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>-24466853</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>-5304522</v>
+        <v>0</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-4822549</v>
+        <v>347</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>-24466853</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-5304522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
+          <t>종속기업투자주식처분이익</t>
         </is>
       </c>
       <c r="C61" s="1" t="n"/>
@@ -4653,56 +4667,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G61" s="1" t="n">
-        <v>106405</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>37745</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>88941</v>
-      </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="M61" s="1" t="n">
-        <v>106405</v>
+        <v>2</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>37745</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>88941</v>
+        <v>0</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>106405</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>37745</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>88941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 평가손실</t>
+        </is>
+      </c>
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="7" t="inlineStr">
         <is>
@@ -4734,61 +4752,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J62" s="1" t="n">
+        <v>-209085</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>-55193</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>-218532</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>-209085</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>-55193</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>-218532</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>-209085</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>-55193</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>-218532</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
+          <t>관계기업 및 공동기업 투자지분 처분손실</t>
         </is>
       </c>
       <c r="C63" s="1" t="n"/>
@@ -4807,58 +4807,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>-5032584</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>-23273171</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>-4743513</v>
-      </c>
-      <c r="J63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>-1675</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>-64119</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>-5032584</v>
+        <v>0</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>-23273171</v>
+        <v>-1675</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-4743513</v>
+        <v>-64119</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-5032584</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>-23273171</v>
+        <v>-1675</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-4743513</v>
+        <v>-64119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 포괄손익</t>
+          <t>관계기업 및 공동기업 투자지분 손상차손</t>
         </is>
       </c>
       <c r="C64" s="1" t="n"/>
@@ -4877,56 +4877,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G64" s="1" t="n">
-        <v>87768</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>90932</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>127546</v>
-      </c>
-      <c r="J64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="M64" s="1" t="n">
-        <v>87768</v>
+        <v>-19</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>90932</v>
+        <v>-5174</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>127546</v>
+        <v>0</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>87768</v>
+        <v>-19</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>90932</v>
+        <v>-5174</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>127546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>종속기업 투자지분 처분손실</t>
+        </is>
+      </c>
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="7" t="inlineStr">
         <is>
@@ -4958,63 +4962,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J65" s="1" t="n">
+        <v>-564</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>-32144</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>-197</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>-564</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>-32144</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>-197</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>-564</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>-32144</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>-197</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>기본주당이익(손실) (단위 : 원)</t>
-        </is>
-      </c>
+          <t>법인세비용차감전순이익(손실)</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="7" t="inlineStr">
         <is>
@@ -5031,60 +5013,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G66" s="1" t="n">
-        <v>-7512</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>-38112</v>
-      </c>
-      <c r="I66" s="1" t="n">
-        <v>-8263</v>
-      </c>
-      <c r="J66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>-7553977</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>-33843619</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>-7071570</v>
       </c>
       <c r="M66" s="1" t="n">
-        <v>-7512</v>
+        <v>-7553977</v>
       </c>
       <c r="N66" s="1" t="n">
-        <v>-38112</v>
+        <v>-33843619</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>-8263</v>
+        <v>-7071570</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-7512</v>
+        <v>-7553977</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>-38112</v>
+        <v>-33843619</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-8263</v>
+        <v>-7071570</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>희석주당손익  (단위 : 원)</t>
-        </is>
-      </c>
+          <t>법인세수익</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="7" t="inlineStr">
         <is>
@@ -5101,53 +5079,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G67" s="1" t="n">
-        <v>-7512</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <v>-38112</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>-8263</v>
-      </c>
-      <c r="J67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>-2837833</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>-9414511</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>-1855989</v>
       </c>
       <c r="M67" s="1" t="n">
-        <v>-7512</v>
+        <v>-2837833</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>-38112</v>
+        <v>-9414511</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>-8263</v>
+        <v>-1855989</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>-7512</v>
+        <v>-2837833</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>-38112</v>
+        <v>-9414511</v>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-8263</v>
+        <v>-1855989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)</t>
+          <t>당기순손실</t>
         </is>
       </c>
       <c r="B68" s="1" t="n"/>
@@ -5183,37 +5161,37 @@
         </is>
       </c>
       <c r="J68" s="1" t="n">
-        <v>15487100</v>
+        <v>-4716144</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>55654077</v>
+        <v>-24429108</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>39907450</v>
+        <v>-5215581</v>
       </c>
       <c r="M68" s="1" t="n">
-        <v>15487100</v>
+        <v>-4716144</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>55654077</v>
+        <v>-24429108</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>39907450</v>
+        <v>-5215581</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>15487100</v>
+        <v>-4716144</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>55654077</v>
+        <v>-24429108</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>39907450</v>
+        <v>-5215581</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>총포괄손실</t>
         </is>
       </c>
       <c r="B69" s="1" t="n"/>
@@ -5249,44 +5227,40 @@
         </is>
       </c>
       <c r="J69" s="1" t="n">
-        <v>3350311</v>
+        <v>-4944816</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>4005664</v>
+        <v>-23182239</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>10002299</v>
+        <v>-4615967</v>
       </c>
       <c r="M69" s="1" t="n">
-        <v>3350311</v>
+        <v>-4944816</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>4005664</v>
+        <v>-23182239</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>10002299</v>
+        <v>-4615967</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>3350311</v>
+        <v>-4944816</v>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>4005664</v>
+        <v>-23182239</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>10002299</v>
+        <v>-4615967</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
-        </is>
-      </c>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="7" t="inlineStr">
         <is>
@@ -5318,50 +5292,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J70" s="1" t="n">
-        <v>665943</v>
-      </c>
-      <c r="K70" s="1" t="n">
-        <v>-822137</v>
-      </c>
-      <c r="L70" s="1" t="n">
-        <v>2508106</v>
-      </c>
-      <c r="M70" s="1" t="n">
-        <v>665943</v>
-      </c>
-      <c r="N70" s="1" t="n">
-        <v>-822137</v>
-      </c>
-      <c r="O70" s="1" t="n">
-        <v>2508106</v>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v>665943</v>
-      </c>
-      <c r="Q70" s="1" t="n">
-        <v>-822137</v>
-      </c>
-      <c r="R70" s="1" t="n">
-        <v>2508106</v>
+      <c r="J70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익-공정가치금융자산평가손익</t>
-        </is>
-      </c>
+          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n"/>
       <c r="D71" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5393,49 +5381,45 @@
         </is>
       </c>
       <c r="J71" s="1" t="n">
-        <v>1481091</v>
+        <v>-4822549</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>-1969498</v>
+        <v>-24466853</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>2980896</v>
+        <v>-5304522</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>1481091</v>
+        <v>-4822549</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>-1969498</v>
+        <v>-24466853</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>2980896</v>
+        <v>-5304522</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>1481091</v>
+        <v>-4822549</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>-1969498</v>
+        <v>-24466853</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>2980896</v>
+        <v>-5304522</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>당기순이익(손실)의 귀속</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n"/>
       <c r="D72" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5467,49 +5451,41 @@
         </is>
       </c>
       <c r="J72" s="1" t="n">
-        <v>13150</v>
+        <v>106405</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-6318</v>
+        <v>37745</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>51816</v>
+        <v>88941</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>13150</v>
+        <v>106405</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>-6318</v>
+        <v>37745</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>51816</v>
+        <v>88941</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>13150</v>
+        <v>106405</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>-6318</v>
+        <v>37745</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>51816</v>
+        <v>88941</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>순확정급여부채(자산) 재측정요소</t>
-        </is>
-      </c>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
       <c r="D73" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5540,43 +5516,61 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J73" s="1" t="n">
-        <v>-828298</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>1153679</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>-524606</v>
-      </c>
-      <c r="M73" s="1" t="n">
-        <v>-828298</v>
-      </c>
-      <c r="N73" s="1" t="n">
-        <v>1153679</v>
-      </c>
-      <c r="O73" s="1" t="n">
-        <v>-524606</v>
-      </c>
-      <c r="P73" s="1" t="n">
-        <v>-828298</v>
-      </c>
-      <c r="Q73" s="1" t="n">
-        <v>1153679</v>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>-524606</v>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>총 포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
         </is>
       </c>
       <c r="C74" s="1" t="n"/>
@@ -5611,49 +5605,45 @@
         </is>
       </c>
       <c r="J74" s="1" t="n">
-        <v>2684368</v>
+        <v>-5032584</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>4827801</v>
+        <v>-23273171</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>7494193</v>
+        <v>-4743513</v>
       </c>
       <c r="M74" s="1" t="n">
-        <v>2684368</v>
+        <v>-5032584</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>4827801</v>
+        <v>-23273171</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>7494193</v>
+        <v>-4743513</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>2684368</v>
+        <v>-5032584</v>
       </c>
       <c r="Q74" s="1" t="n">
-        <v>4827801</v>
+        <v>-23273171</v>
       </c>
       <c r="R74" s="1" t="n">
-        <v>7494193</v>
+        <v>-4743513</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>총 포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>비지배지분에 귀속되는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n"/>
       <c r="D75" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5685,49 +5675,41 @@
         </is>
       </c>
       <c r="J75" s="1" t="n">
-        <v>61962</v>
+        <v>87768</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-44192</v>
+        <v>90932</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>160163</v>
+        <v>127546</v>
       </c>
       <c r="M75" s="1" t="n">
-        <v>61962</v>
+        <v>87768</v>
       </c>
       <c r="N75" s="1" t="n">
-        <v>-44192</v>
+        <v>90932</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>160163</v>
+        <v>127546</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>61962</v>
+        <v>87768</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>-44192</v>
+        <v>90932</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>160163</v>
+        <v>127546</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>해외사업장환산외환차이</t>
-        </is>
-      </c>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
       <c r="D76" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5758,50 +5740,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J76" s="1" t="n">
-        <v>2621479</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>4884886</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>7283620</v>
-      </c>
-      <c r="M76" s="1" t="n">
-        <v>2621479</v>
-      </c>
-      <c r="N76" s="1" t="n">
-        <v>4884886</v>
-      </c>
-      <c r="O76" s="1" t="n">
-        <v>7283620</v>
-      </c>
-      <c r="P76" s="1" t="n">
-        <v>2621479</v>
-      </c>
-      <c r="Q76" s="1" t="n">
-        <v>4884886</v>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>7283620</v>
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익(*4)</t>
+          <t>주당이익</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>현금흐름위험회피파생상품평가손익</t>
-        </is>
-      </c>
+          <t>기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n"/>
       <c r="D77" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5833,40 +5829,44 @@
         </is>
       </c>
       <c r="J77" s="1" t="n">
-        <v>927</v>
+        <v>-7512</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>-12893</v>
+        <v>-38112</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>50410</v>
+        <v>-8263</v>
       </c>
       <c r="M77" s="1" t="n">
-        <v>927</v>
+        <v>-7512</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>-12893</v>
+        <v>-38112</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>50410</v>
+        <v>-8263</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>927</v>
+        <v>-7512</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>-12893</v>
+        <v>-38112</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>50410</v>
+        <v>-8263</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>총포괄손익(*3)</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n"/>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>희석주당손익  (단위 : 원)</t>
+        </is>
+      </c>
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="7" t="inlineStr">
         <is>
@@ -5899,31 +5899,31 @@
         </is>
       </c>
       <c r="J78" s="1" t="n">
-        <v>18837411</v>
+        <v>-7512</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>59659741</v>
+        <v>-38112</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>49909749</v>
+        <v>-8263</v>
       </c>
       <c r="M78" s="1" t="n">
-        <v>18837411</v>
+        <v>-7512</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>59659741</v>
+        <v>-38112</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>49909749</v>
+        <v>-8263</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>18837411</v>
+        <v>-7512</v>
       </c>
       <c r="Q78" s="1" t="n">
-        <v>59659741</v>
+        <v>-38112</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>49909749</v>
+        <v>-8263</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/연결 포괄손익계산서.xlsx
+++ b/data/output/연결 포괄손익계산서.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,9 +488,12 @@
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,32 +502,39 @@
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="4" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -586,6 +596,21 @@
         </is>
       </c>
       <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>2021년</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>2023년</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>2022년</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
@@ -607,23 +632,26 @@
       <c r="M3" s="6" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="6" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>연결당기순이익</t>
+          <t>당기순이익(손실)</t>
         </is>
       </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>12272301</v>
+        <v>15487100</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>7983614</v>
+        <v>55654077</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>5693077</v>
+        <v>39907450</v>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
@@ -640,90 +668,126 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>12272301</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>7983614</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>5693077</v>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M4" s="1" t="n">
-        <v>12272301</v>
+        <v>15487100</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>7983614</v>
+        <v>55654077</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>5693077</v>
+        <v>39907450</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>15487100</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>55654077</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>39907450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n">
-        <v>156540</v>
+        <v>3350311</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1050862</v>
+        <v>4005664</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2168062</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>-228672</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1246869</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>599614</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>-72132</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2297731</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>2767676</v>
+        <v>10002299</v>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M5" s="1" t="n">
-        <v>-36066</v>
+        <v>3350311</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>1148865.5</v>
+        <v>4005664</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>1383838</v>
+        <v>10002299</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>3350311</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>4005664</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>10002299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n">
-        <v>-412756</v>
+        <v>665943</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>157304</v>
+        <v>-822137</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>376814</v>
+        <v>2508106</v>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
@@ -740,49 +804,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>-412756</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>157304</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>376814</v>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-412756</v>
+        <v>665943</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>157304</v>
+        <v>-822137</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>376814</v>
+        <v>2508106</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>665943</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>-822137</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>2508106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+          <t>기타포괄손익-공정가치금융자산평가손익</t>
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>79056</v>
+        <v>1481091</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-223420</v>
+        <v>-1969498</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>102137</v>
+        <v>2980896</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
@@ -799,49 +878,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>79056</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>-223420</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>102137</v>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M7" s="1" t="n">
-        <v>79056</v>
+        <v>1481091</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>-223420</v>
+        <v>-1969498</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>102137</v>
+        <v>2980896</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>1481091</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>-1969498</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>2980896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>확정급여제도의 재측정요소</t>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-312128</v>
+        <v>13150</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>391308</v>
+        <v>-6318</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>175392</v>
+        <v>51816</v>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
@@ -858,49 +952,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>-312128</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>391308</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>175392</v>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-312128</v>
+        <v>13150</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>391308</v>
+        <v>-6318</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>175392</v>
+        <v>51816</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>13150</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>-6318</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>51816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 포괄손익</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>지분법이익잉여금</t>
+          <t>순확정급여부채(자산) 재측정요소</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-219981</v>
+        <v>-828298</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>164475</v>
+        <v>1153679</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>77482</v>
+        <v>-524606</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
@@ -917,49 +1026,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>-219981</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>164475</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>77482</v>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M9" s="1" t="n">
-        <v>-219981</v>
+        <v>-828298</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>164475</v>
+        <v>1153679</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>77482</v>
+        <v>-524606</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>-828298</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1153679</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>-524606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>40297</v>
+        <v>2684368</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-175059</v>
+        <v>4827801</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>21803</v>
+        <v>7494193</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
@@ -976,45 +1096,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>40297</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>-175059</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>21803</v>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M10" s="1" t="n">
-        <v>40297</v>
+        <v>2684368</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>-175059</v>
+        <v>4827801</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>21803</v>
+        <v>7494193</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>2684368</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>4827801</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>7494193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n"/>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="n">
-        <v>569296</v>
+        <v>61962</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>893558</v>
+        <v>-44192</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1791248</v>
+        <v>160163</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
@@ -1031,49 +1170,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J11" s="1" t="n">
-        <v>569296</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>893558</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1791248</v>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M11" s="1" t="n">
-        <v>569296</v>
+        <v>61962</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>893558</v>
+        <v>-44192</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>1791248</v>
+        <v>160163</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>61962</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>-44192</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>160163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+          <t>해외사업장환산외환차이</t>
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>13884</v>
+        <v>2621479</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-36545</v>
+        <v>4884886</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-6448</v>
+        <v>7283620</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
@@ -1090,34 +1244,49 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>13884</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>-36545</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>-6448</v>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M12" s="1" t="n">
-        <v>13884</v>
+        <v>2621479</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>-36545</v>
+        <v>4884886</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>-6448</v>
+        <v>7283620</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>2621479</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>4884886</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>7283620</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>기타포괄손익(*4)</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+          <t>당기손익으로 재분류되는 세후기타포괄손익</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1126,13 +1295,13 @@
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-227671</v>
+        <v>927</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>218377</v>
+        <v>-12893</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>5015</v>
+        <v>50410</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -1149,49 +1318,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>-227671</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>218377</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>5015</v>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-227671</v>
+        <v>927</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>218377</v>
+        <v>-12893</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>5015</v>
+        <v>50410</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>-12893</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>50410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>지분법자본변동</t>
-        </is>
-      </c>
+          <t>총포괄손익(*3)</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n">
-        <v>328032</v>
+        <v>18837411</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>10008</v>
+        <v>59659741</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>546504</v>
+        <v>49909749</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
@@ -1208,49 +1384,62 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J14" s="1" t="n">
-        <v>328032</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>10008</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>546504</v>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M14" s="1" t="n">
-        <v>328032</v>
+        <v>18837411</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>10008</v>
+        <v>59659741</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>546504</v>
+        <v>49909749</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>18837411</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>59659741</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>49909749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>해외사업환산손익</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1246177</v>
+          <t>포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
@@ -1267,155 +1456,198 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>1246177</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>455051</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>701718</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>1246177</v>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>-330738</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>733410</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>273042</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>-330738</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>733410</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>273042</v>
+      <c r="D16" s="1" t="n">
+        <v>17845661</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>58745107</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>49037912</v>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-330738</v>
+        <v>17845661</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>733410</v>
+        <v>58745107</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>273042</v>
+        <v>49037912</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>17845661</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>58745107</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>49037912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>확정급여제도의 재측정요소</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>991750</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>914634</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>871837</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-271724</v>
+        <v>224415</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>663095</v>
+        <v>800080</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>210409</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>-271724</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>663095</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>210409</v>
+        <v>922502</v>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-271724</v>
+        <v>1216165</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>663095</v>
+        <v>1714714</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>210409</v>
+        <v>1794339</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>608082.5</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>857357</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>897169.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
+          <t>포괄손익의 귀속</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
-        </is>
-      </c>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n"/>
       <c r="D18" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1432,49 +1664,56 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-27349</v>
+        <v>12204426</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>12305</v>
+        <v>8234396</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>3609</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>-27349</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>12305</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>3609</v>
+        <v>6938637</v>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-27349</v>
+        <v>12204426</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>12305</v>
+        <v>8234396</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>3609</v>
+        <v>6938637</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>12204426</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>8234396</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>6938637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
-        </is>
-      </c>
+          <t>연결당기순이익</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
       <c r="D19" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1491,31 +1730,46 @@
         </is>
       </c>
       <c r="G19" s="1" t="n">
-        <v>-31665</v>
+        <v>12272301</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>58010</v>
+        <v>7983614</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>59024</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>-31665</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>58010</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>59024</v>
+        <v>5693077</v>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-31665</v>
+        <v>12272301</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>58010</v>
+        <v>7983614</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>59024</v>
+        <v>5693077</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>12272301</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>7983614</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>5693077</v>
       </c>
     </row>
     <row r="20">
@@ -1524,11 +1778,7 @@
           <t>기타포괄손익</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
+      <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="7" t="inlineStr">
         <is>
@@ -1546,31 +1796,40 @@
         </is>
       </c>
       <c r="G20" s="1" t="n">
-        <v>102066</v>
+        <v>156540</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>513459</v>
+        <v>1050862</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>326572</v>
+        <v>2168062</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>102066</v>
+        <v>-228672</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>513459</v>
+        <v>1246869</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>326572</v>
+        <v>599614</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>102066</v>
+        <v>-72132</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>513459</v>
+        <v>2297731</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>326572</v>
+        <v>2767676</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>-36066</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>1148865.5</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1383838</v>
       </c>
     </row>
     <row r="21">
@@ -1581,14 +1840,10 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>현금흐름위험회피 파생상품평가손익</t>
-        </is>
-      </c>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1605,31 +1860,46 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>-3654</v>
+        <v>-412756</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-24415</v>
+        <v>157304</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-15778</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>-3654</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>-24415</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>-15778</v>
+        <v>376814</v>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-3654</v>
+        <v>-412756</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>-24415</v>
+        <v>157304</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-15778</v>
+        <v>376814</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>-412756</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>157304</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>376814</v>
       </c>
     </row>
     <row r="22">
@@ -1640,12 +1910,12 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>해외사업장환산손익</t>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1664,31 +1934,46 @@
         </is>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-17274</v>
+        <v>79056</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>28387</v>
+        <v>-223420</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>41189</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>-17274</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>28387</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>41189</v>
+        <v>102137</v>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-17274</v>
+        <v>79056</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>28387</v>
+        <v>-223420</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>41189</v>
+        <v>102137</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>79056</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>-223420</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>102137</v>
       </c>
     </row>
     <row r="23">
@@ -1699,12 +1984,12 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+          <t>확정급여제도의 재측정요소</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1723,92 +2008,138 @@
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>122994</v>
+        <v>-312128</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>509487</v>
+        <v>391308</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>301161</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>122994</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>509487</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>301161</v>
+        <v>175392</v>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M23" s="1" t="n">
-        <v>122994</v>
+        <v>-312128</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>509487</v>
+        <v>391308</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>301161</v>
+        <v>175392</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>-312128</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>391308</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>175392</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>총포괄이익</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n">
-        <v>12428841</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>9034476</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>7861139</v>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>12428841</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>9034476</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>7861139</v>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>지분법이익잉여금</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>-219981</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>164475</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>77482</v>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>12428841</v>
+        <v>-219981</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>9034476</v>
+        <v>164475</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>7861139</v>
+        <v>77482</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>-219981</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>164475</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>77482</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는항목</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1824,20 +2155,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>21803</v>
       </c>
       <c r="J25" s="7" t="inlineStr">
         <is>
@@ -1854,140 +2179,185 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>21803</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>40297</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>-175059</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>21803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
         </is>
       </c>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n">
-        <v>12204426</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>8234396</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>6938637</v>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>12204426</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>8234396</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>6938637</v>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>569296</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>893558</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1791248</v>
+      </c>
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>12204426</v>
+        <v>569296</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>8234396</v>
+        <v>893558</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>6938637</v>
+        <v>1791248</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>569296</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>893558</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>1791248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>포괄손익의 귀속</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n">
-        <v>224415</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>800080</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>922502</v>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>224415</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>800080</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>922502</v>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치측정금융자산관련손익</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>13884</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>-36545</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>-6448</v>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M27" s="1" t="n">
-        <v>224415</v>
+        <v>13884</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>800080</v>
+        <v>-36545</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>922502</v>
+        <v>-6448</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>13884</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>-36545</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>-6448</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2004,45 +2374,64 @@
         </is>
       </c>
       <c r="G28" s="1" t="n">
-        <v>88219461</v>
+        <v>-227671</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>71257863</v>
+        <v>218377</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>60673587</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>88219461</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>71257863</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>60673587</v>
+        <v>5015</v>
+      </c>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M28" s="1" t="n">
-        <v>88219461</v>
+        <v>-227671</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>71257863</v>
+        <v>218377</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>60673587</v>
+        <v>5015</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>-227671</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>218377</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>5015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>재화의 판매로 인한 매출액</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>지분법자본변동</t>
+        </is>
+      </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2059,45 +2448,64 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>85940137</v>
+        <v>328032</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>69184469</v>
+        <v>10008</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>58800977</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>85940137</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>69184469</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>58800977</v>
+        <v>546504</v>
+      </c>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>85940137</v>
+        <v>328032</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>69184469</v>
+        <v>10008</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>58800977</v>
+        <v>546504</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>328032</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>546504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>용역의 제공으로 인한 매출액</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류될 수 있는항목</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>해외사업환산손익</t>
+        </is>
+      </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2114,42 +2522,57 @@
         </is>
       </c>
       <c r="G30" s="1" t="n">
-        <v>750878</v>
+        <v>455051</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>714602</v>
+        <v>701718</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>456400</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>750878</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>714602</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>456400</v>
+        <v>1246177</v>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M30" s="1" t="n">
-        <v>750878</v>
+        <v>455051</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>714602</v>
+        <v>701718</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>456400</v>
+        <v>1246177</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>455051</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>701718</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>1246177</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>건설계약으로 인한 매출액</t>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
         </is>
       </c>
       <c r="C31" s="1" t="n"/>
@@ -2168,46 +2591,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>785395</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>646953</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>754998</v>
+      <c r="G31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J31" s="1" t="n">
-        <v>785395</v>
+        <v>-330738</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>646953</v>
+        <v>733410</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>754998</v>
+        <v>273042</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>785395</v>
+        <v>-330738</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>646953</v>
+        <v>733410</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>754998</v>
+        <v>273042</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>-330738</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>733410</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>273042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>수익(매출액)</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>공사부담금수익</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>확정급여제도의 재측정요소</t>
+        </is>
+      </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2223,42 +2665,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>743051</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>711839</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>661212</v>
+      <c r="G32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J32" s="1" t="n">
-        <v>743051</v>
+        <v>-271724</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>711839</v>
+        <v>663095</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>661212</v>
+        <v>210409</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>743051</v>
+        <v>-271724</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>711839</v>
+        <v>663095</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>661212</v>
+        <v>210409</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>-271724</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>663095</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>210409</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2274,46 +2739,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>89699527</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>100903594</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>63644290</v>
+      <c r="G33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J33" s="1" t="n">
-        <v>89699527</v>
+        <v>-27349</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>100903594</v>
+        <v>12305</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>63644290</v>
+        <v>3609</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>89699527</v>
+        <v>-27349</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>100903594</v>
+        <v>12305</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>63644290</v>
+        <v>3609</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>-27349</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>12305</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>3609</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>재화의 판매로 인한 매출원가</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="n"/>
+          <t>후속적으로 당기손익으로 재분류되지 않는 기타포괄손익</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익-공정가치측정금융자산평가손익</t>
+        </is>
+      </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2329,43 +2813,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>88066120</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>99441768</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>62164425</v>
+      <c r="G34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J34" s="1" t="n">
-        <v>88066120</v>
+        <v>-31665</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>99441768</v>
+        <v>58010</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>62164425</v>
+        <v>59024</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>88066120</v>
+        <v>-31665</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>99441768</v>
+        <v>58010</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>62164425</v>
+        <v>59024</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>-31665</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>58010</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>59024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>용역의 제공으로 인한 매출원가</t>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
         </is>
       </c>
       <c r="C35" s="1" t="n"/>
@@ -2384,46 +2883,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>629806</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>520572</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>580902</v>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J35" s="1" t="n">
-        <v>629806</v>
+        <v>102066</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>520572</v>
+        <v>513459</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>580902</v>
+        <v>326572</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>629806</v>
+        <v>102066</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>520572</v>
+        <v>513459</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>580902</v>
+        <v>326572</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>102066</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>513459</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>326572</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>매출원가</t>
+          <t>기타포괄손익</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>건설계약으로 인한 매출원가</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="n"/>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>현금흐름위험회피 파생상품평가손익</t>
+        </is>
+      </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2439,42 +2957,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>1003601</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>941254</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>898963</v>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J36" s="1" t="n">
-        <v>1003601</v>
+        <v>-3654</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>941254</v>
+        <v>-24415</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>898963</v>
+        <v>-15778</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>1003601</v>
+        <v>-3654</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>941254</v>
+        <v>-24415</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>898963</v>
+        <v>-15778</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>-3654</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>-24415</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>-15778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>매출총손실</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>해외사업장환산손익</t>
+        </is>
+      </c>
       <c r="D37" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2490,42 +3031,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>-1480066</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>-29645731</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>-2970703</v>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J37" s="1" t="n">
-        <v>-1480066</v>
+        <v>-17274</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>-29645731</v>
+        <v>28387</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>-2970703</v>
+        <v>41189</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>-1480066</v>
+        <v>-17274</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>-29645731</v>
+        <v>28387</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>-2970703</v>
+        <v>41189</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>-17274</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>28387</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>41189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>판매비와관리비</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+          <t>기타포괄손익</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>당기손익으로 재분류될 수 있는 항목(세후기타포괄손익)</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>지분법적용대상인 관계기업과 공동기업의 기타포괄손익에 대한 지분</t>
+        </is>
+      </c>
       <c r="D38" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -2541,38 +3105,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>3061582</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>3009422</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>2875796</v>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J38" s="1" t="n">
-        <v>3061582</v>
+        <v>122994</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>3009422</v>
+        <v>509487</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>2875796</v>
+        <v>301161</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>3061582</v>
+        <v>122994</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>3009422</v>
+        <v>509487</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>2875796</v>
+        <v>301161</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>122994</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>509487</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>301161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>영업이익(손실)</t>
+          <t>총포괄이익</t>
         </is>
       </c>
       <c r="B39" s="1" t="n"/>
@@ -2593,37 +3172,52 @@
         </is>
       </c>
       <c r="G39" s="1" t="n">
-        <v>-4541648</v>
+        <v>12428841</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-32655153</v>
+        <v>9034476</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-5846499</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>-4541648</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>-32655153</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>-5846499</v>
+        <v>7861139</v>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="M39" s="1" t="n">
-        <v>-4541648</v>
+        <v>12428841</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>-32655153</v>
+        <v>9034476</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-5846499</v>
+        <v>7861139</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>12428841</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>9034476</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>7861139</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>기타수익</t>
+          <t>수익(매출액)</t>
         </is>
       </c>
       <c r="B40" s="1" t="n"/>
@@ -2643,41 +3237,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G40" s="1" t="n">
-        <v>532851</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>383650</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>372921</v>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J40" s="1" t="n">
-        <v>532851</v>
+        <v>88219461</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>383650</v>
+        <v>71257863</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>372921</v>
+        <v>60673587</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>532851</v>
+        <v>88219461</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>383650</v>
+        <v>71257863</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>372921</v>
+        <v>60673587</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>88219461</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>71257863</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>60673587</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>기타비용</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>재화의 판매로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="7" t="inlineStr">
         <is>
@@ -2694,41 +3307,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G41" s="1" t="n">
-        <v>258905</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>212150</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>257932</v>
+      <c r="G41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J41" s="1" t="n">
-        <v>258905</v>
+        <v>85940137</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>212150</v>
+        <v>69184469</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>257932</v>
+        <v>58800977</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>258905</v>
+        <v>85940137</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>212150</v>
+        <v>69184469</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>257932</v>
+        <v>58800977</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>85940137</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>69184469</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>58800977</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>기타이익(손실)</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>용역의 제공으로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="7" t="inlineStr">
         <is>
@@ -2745,41 +3377,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>22686</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>243122</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>8519</v>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J42" s="1" t="n">
-        <v>22686</v>
+        <v>750878</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>243122</v>
+        <v>714602</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>8519</v>
+        <v>456400</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>22686</v>
+        <v>750878</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>243122</v>
+        <v>714602</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>8519</v>
+        <v>456400</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>750878</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>714602</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>456400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>금융수익</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>건설계약으로 인한 매출액</t>
+        </is>
+      </c>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="7" t="inlineStr">
         <is>
@@ -2796,41 +3447,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G43" s="1" t="n">
-        <v>1425031</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>1833312</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>1402614</v>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J43" s="1" t="n">
-        <v>1425031</v>
+        <v>785395</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>1833312</v>
+        <v>646953</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1402614</v>
+        <v>754998</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>1425031</v>
+        <v>785395</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>1833312</v>
+        <v>646953</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>1402614</v>
+        <v>754998</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>785395</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>646953</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>754998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>금융원가</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n"/>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>공사부담금수익</t>
+        </is>
+      </c>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="7" t="inlineStr">
         <is>
@@ -2847,38 +3517,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G44" s="1" t="n">
-        <v>5347018</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>4746791</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>3245777</v>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J44" s="1" t="n">
-        <v>5347018</v>
+        <v>743051</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>4746791</v>
+        <v>711839</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>3245777</v>
+        <v>661212</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>5347018</v>
+        <v>743051</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>4746791</v>
+        <v>711839</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>3245777</v>
+        <v>661212</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>743051</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>711839</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>661212</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B45" s="1" t="n"/>
@@ -2898,43 +3583,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G45" s="1" t="n">
-        <v>613026</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>1310391</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>494584</v>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J45" s="1" t="n">
-        <v>613026</v>
+        <v>89699527</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>1310391</v>
+        <v>100903594</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>494584</v>
+        <v>63644290</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>613026</v>
+        <v>89699527</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>1310391</v>
+        <v>100903594</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>494584</v>
+        <v>63644290</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>89699527</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>100903594</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>63644290</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 평가이익</t>
+          <t>재화의 판매로 인한 매출원가</t>
         </is>
       </c>
       <c r="C46" s="1" t="n"/>
@@ -2953,43 +3653,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G46" s="1" t="n">
-        <v>804141</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>1393486</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>775588</v>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J46" s="1" t="n">
-        <v>804141</v>
+        <v>88066120</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>1393486</v>
+        <v>99441768</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>775588</v>
+        <v>62164425</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>804141</v>
+        <v>88066120</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>1393486</v>
+        <v>99441768</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>775588</v>
+        <v>62164425</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>88066120</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>99441768</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>62164425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>관계기업 및 공동기업 투자지분 처분이익</t>
+          <t>용역의 제공으로 인한 매출원가</t>
         </is>
       </c>
       <c r="C47" s="1" t="n"/>
@@ -3008,43 +3723,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>18204</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>11091</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>1844</v>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J47" s="1" t="n">
-        <v>18204</v>
+        <v>629806</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>11091</v>
+        <v>520572</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1844</v>
+        <v>580902</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>18204</v>
+        <v>629806</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>11091</v>
+        <v>520572</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>1844</v>
+        <v>580902</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>629806</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>520572</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>580902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+          <t>매출원가</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>관계기업/공동기업투자손상차손환입</t>
+          <t>건설계약으로 인한 매출원가</t>
         </is>
       </c>
       <c r="C48" s="1" t="n"/>
@@ -3063,45 +3793,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>0</v>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J48" s="1" t="n">
-        <v>347</v>
+        <v>1003601</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0</v>
+        <v>941254</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>0</v>
+        <v>898963</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>347</v>
+        <v>1003601</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>0</v>
+        <v>941254</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>0</v>
+        <v>898963</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>1003601</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>941254</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>898963</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>종속기업투자주식처분이익</t>
-        </is>
-      </c>
+          <t>매출총손실</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="7" t="inlineStr">
         <is>
@@ -3118,45 +3859,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>0</v>
+      <c r="G49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J49" s="1" t="n">
-        <v>2</v>
+        <v>-1480066</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0</v>
+        <v>-29645731</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>0</v>
+        <v>-2970703</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>2</v>
+        <v>-1480066</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>0</v>
+        <v>-29645731</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>0</v>
+        <v>-2970703</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>-1480066</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>-29645731</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>-2970703</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 평가손실</t>
-        </is>
-      </c>
+          <t>판매비와관리비</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="7" t="inlineStr">
         <is>
@@ -3173,45 +3925,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G50" s="1" t="n">
-        <v>-209085</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>-55193</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>-218532</v>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J50" s="1" t="n">
-        <v>-209085</v>
+        <v>3061582</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>-55193</v>
+        <v>3009422</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>-218532</v>
+        <v>2875796</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>-209085</v>
+        <v>3061582</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>-55193</v>
+        <v>3009422</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>-218532</v>
+        <v>2875796</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>3061582</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>3009422</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>2875796</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 처분손실</t>
-        </is>
-      </c>
+          <t>영업이익(손실)</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="7" t="inlineStr">
         <is>
@@ -3228,45 +3991,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>-1675</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>-64119</v>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J51" s="1" t="n">
-        <v>0</v>
+        <v>-4541648</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>-1675</v>
+        <v>-32655153</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>-64119</v>
+        <v>-5846499</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>0</v>
+        <v>-4541648</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>-1675</v>
+        <v>-32655153</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-64119</v>
+        <v>-5846499</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>-4541648</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>-32655153</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>-5846499</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>관계기업 및 공동기업 투자지분 손상차손</t>
-        </is>
-      </c>
+          <t>기타수익</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="7" t="inlineStr">
         <is>
@@ -3283,45 +4057,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G52" s="1" t="n">
-        <v>-19</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>-5174</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>0</v>
+      <c r="G52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J52" s="1" t="n">
-        <v>-19</v>
+        <v>532851</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>-5174</v>
+        <v>383650</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>0</v>
+        <v>372921</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>-19</v>
+        <v>532851</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>-5174</v>
+        <v>383650</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>0</v>
+        <v>372921</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>532851</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>383650</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>372921</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>종속기업 투자지분 처분손실</t>
-        </is>
-      </c>
+          <t>기타비용</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="7" t="inlineStr">
         <is>
@@ -3338,38 +4123,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G53" s="1" t="n">
-        <v>-564</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>-32144</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>-197</v>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J53" s="1" t="n">
-        <v>-564</v>
+        <v>258905</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-32144</v>
+        <v>212150</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>-197</v>
+        <v>257932</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>-564</v>
+        <v>258905</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>-32144</v>
+        <v>212150</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>-197</v>
+        <v>257932</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>258905</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>212150</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>257932</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>법인세비용차감전순이익(손실)</t>
+          <t>기타이익(손실)</t>
         </is>
       </c>
       <c r="B54" s="1" t="n"/>
@@ -3389,38 +4189,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>-7553977</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>-33843619</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>-7071570</v>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J54" s="1" t="n">
-        <v>-7553977</v>
+        <v>22686</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>-33843619</v>
+        <v>243122</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>-7071570</v>
+        <v>8519</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>-7553977</v>
+        <v>22686</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>-33843619</v>
+        <v>243122</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>-7071570</v>
+        <v>8519</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>22686</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>243122</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>8519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>법인세수익</t>
+          <t>금융수익</t>
         </is>
       </c>
       <c r="B55" s="1" t="n"/>
@@ -3440,38 +4255,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G55" s="1" t="n">
-        <v>-2837833</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>-9414511</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>-1855989</v>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-2837833</v>
+        <v>1425031</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-9414511</v>
+        <v>1833312</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>-1855989</v>
+        <v>1402614</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>-2837833</v>
+        <v>1425031</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>-9414511</v>
+        <v>1833312</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>-1855989</v>
+        <v>1402614</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>1425031</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>1833312</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>1402614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>당기순손실</t>
+          <t>금융원가</t>
         </is>
       </c>
       <c r="B56" s="1" t="n"/>
@@ -3491,38 +4321,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G56" s="1" t="n">
-        <v>-4716144</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>-24429108</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>-5215581</v>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-4716144</v>
+        <v>5347018</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-24429108</v>
+        <v>4746791</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>-5215581</v>
+        <v>3245777</v>
       </c>
       <c r="M56" s="1" t="n">
-        <v>-4716144</v>
+        <v>5347018</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>-24429108</v>
+        <v>4746791</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>-5215581</v>
+        <v>3245777</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>5347018</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>4746791</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>3245777</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>총포괄손실</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B57" s="1" t="n"/>
@@ -3542,41 +4387,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G57" s="1" t="n">
-        <v>-4944816</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>-23182239</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>-4615967</v>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J57" s="1" t="n">
-        <v>-4944816</v>
+        <v>613026</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-23182239</v>
+        <v>1310391</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>-4615967</v>
+        <v>494584</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>-4944816</v>
+        <v>613026</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>-23182239</v>
+        <v>1310391</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>-4615967</v>
+        <v>494584</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>613026</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>1310391</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>494584</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 평가이익</t>
+        </is>
+      </c>
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="7" t="inlineStr">
         <is>
@@ -3608,46 +4472,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J58" s="1" t="n">
+        <v>804141</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>1393486</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>775588</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>804141</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>1393486</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>775588</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>804141</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>1393486</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>775588</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
+          <t>관계기업 및 공동기업 투자지분 처분이익</t>
         </is>
       </c>
       <c r="C59" s="1" t="n"/>
@@ -3666,43 +4527,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G59" s="1" t="n">
-        <v>-4822549</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>-24466853</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>-5304522</v>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-4822549</v>
+        <v>18204</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-24466853</v>
+        <v>11091</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>-5304522</v>
+        <v>1844</v>
       </c>
       <c r="M59" s="1" t="n">
-        <v>-4822549</v>
+        <v>18204</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>-24466853</v>
+        <v>11091</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>-5304522</v>
+        <v>1844</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>18204</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>11091</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>1844</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>당기순이익(손실)의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
+          <t>관계기업/공동기업투자손상차손환입</t>
         </is>
       </c>
       <c r="C60" s="1" t="n"/>
@@ -3721,41 +4597,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>106405</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>37745</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>88941</v>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J60" s="1" t="n">
-        <v>106405</v>
+        <v>347</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>37745</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>88941</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>106405</v>
+        <v>347</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>37745</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>88941</v>
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>종속기업투자주식처분이익</t>
+        </is>
+      </c>
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="7" t="inlineStr">
         <is>
@@ -3787,46 +4682,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
+          <t>관계기업 및 공동기업 투자지분 평가손실</t>
         </is>
       </c>
       <c r="C62" s="1" t="n"/>
@@ -3845,43 +4737,58 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G62" s="1" t="n">
-        <v>-5032584</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>-23273171</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>-4743513</v>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-5032584</v>
+        <v>-209085</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-23273171</v>
+        <v>-55193</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>-4743513</v>
+        <v>-218532</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>-5032584</v>
+        <v>-209085</v>
       </c>
       <c r="N62" s="1" t="n">
-        <v>-23273171</v>
+        <v>-55193</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>-4743513</v>
+        <v>-218532</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>-209085</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>-55193</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>-218532</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>총 포괄손익의 귀속</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>비지배지분에 귀속되는 포괄손익</t>
+          <t>관계기업 및 공동기업 투자지분 처분손실</t>
         </is>
       </c>
       <c r="C63" s="1" t="n"/>
@@ -3900,41 +4807,60 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" s="1" t="n">
-        <v>87768</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>90932</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>127546</v>
+      <c r="G63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J63" s="1" t="n">
-        <v>87768</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>90932</v>
+        <v>-1675</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>127546</v>
+        <v>-64119</v>
       </c>
       <c r="M63" s="1" t="n">
-        <v>87768</v>
+        <v>0</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>90932</v>
+        <v>-1675</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>127546</v>
+        <v>-64119</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>-1675</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>-64119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n"/>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>관계기업 및 공동기업 투자지분 손상차손</t>
+        </is>
+      </c>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="7" t="inlineStr">
         <is>
@@ -3966,46 +4892,43 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J64" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>-5174</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
+          <t>관계기업,공동기업,종속기업 관련이익(손실)</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>기본주당이익(손실) (단위 : 원)</t>
+          <t>종속기업 투자지분 처분손실</t>
         </is>
       </c>
       <c r="C65" s="1" t="n"/>
@@ -4024,45 +4947,56 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G65" s="1" t="n">
-        <v>-7512</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>-38112</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>-8263</v>
+      <c r="G65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-7512</v>
+        <v>-564</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-38112</v>
+        <v>-32144</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>-8263</v>
+        <v>-197</v>
       </c>
       <c r="M65" s="1" t="n">
-        <v>-7512</v>
+        <v>-564</v>
       </c>
       <c r="N65" s="1" t="n">
-        <v>-38112</v>
+        <v>-32144</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>-8263</v>
+        <v>-197</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>-564</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>-32144</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>-197</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>주당이익</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>희석주당손익  (단위 : 원)</t>
-        </is>
-      </c>
+          <t>법인세비용차감전순이익(손실)</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="7" t="inlineStr">
         <is>
@@ -4079,37 +5013,923 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G66" s="1" t="n">
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>-7553977</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>-33843619</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>-7071570</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>-7553977</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>-33843619</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>-7071570</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>-7553977</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>-33843619</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>-7071570</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>법인세수익</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>-2837833</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>-9414511</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>-1855989</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>-2837833</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>-9414511</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>-1855989</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>-2837833</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>-9414511</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>-1855989</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>당기순손실</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>-4716144</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>-24429108</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>-5215581</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>-4716144</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>-24429108</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>-5215581</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>-4716144</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>-24429108</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>-5215581</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>총포괄손실</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>-4944816</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>-23182239</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>-4615967</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>-4944816</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>-23182239</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>-4615967</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>-4944816</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>-23182239</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>-4615967</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 당기순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>-4822549</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>-24466853</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>-5304522</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>-4822549</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>-24466853</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>-5304522</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>-4822549</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>-24466853</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>-5304522</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>당기순이익(손실)의 귀속</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>비지배지분에 귀속되는 당기순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>106405</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>37745</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>88941</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>106405</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>37745</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>88941</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>106405</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>37745</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>88941</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>-5032584</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>-23273171</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>-4743513</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>-5032584</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>-23273171</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>-4743513</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>-5032584</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>-23273171</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>-4743513</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>총 포괄손익의 귀속</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>비지배지분에 귀속되는 포괄손익</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>87768</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>90932</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>127546</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>87768</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>90932</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>127546</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>87768</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>90932</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>127546</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>기본주당이익(손실) (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="K77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="L77" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="J66" s="1" t="n">
+      <c r="M77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="K66" s="1" t="n">
+      <c r="N77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="L66" s="1" t="n">
+      <c r="O77" s="1" t="n">
         <v>-8263</v>
       </c>
-      <c r="M66" s="1" t="n">
+      <c r="P77" s="1" t="n">
         <v>-7512</v>
       </c>
-      <c r="N66" s="1" t="n">
+      <c r="Q77" s="1" t="n">
         <v>-38112</v>
       </c>
-      <c r="O66" s="1" t="n">
+      <c r="R77" s="1" t="n">
         <v>-8263</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>주당이익</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>희석주당손익  (단위 : 원)</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>-7512</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>-38112</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>-8263</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>-7512</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>-38112</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>-8263</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>-7512</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>-38112</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>-8263</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="M1:O1"/>
